--- a/results/simul_results_scenario1.xlsx
+++ b/results/simul_results_scenario1.xlsx
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="7447" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10787" uniqueCount="1198">
   <si>
     <t>Y-axis</t>
   </si>
@@ -41674,7 +41674,7 @@
         <v>1075</v>
       </c>
       <c r="D3" s="1">
-        <v>675029241.9367206</v>
+        <v>675029237.9353248</v>
       </c>
       <c r="E3" s="1">
         <v>1716646.722167969</v>
@@ -41722,7 +41722,7 @@
         <v>1077</v>
       </c>
       <c r="D5" s="1">
-        <v>393.225486187525</v>
+        <v>393.2254838565877</v>
       </c>
       <c r="E5" s="1">
         <v>1716646.722167969</v>
@@ -41770,7 +41770,7 @@
         <v>1075</v>
       </c>
       <c r="D7" s="1">
-        <v>3571096177.558317</v>
+        <v>3571096159.970656</v>
       </c>
       <c r="E7" s="1">
         <v>1716646.722167969</v>
@@ -41818,7 +41818,7 @@
         <v>1077</v>
       </c>
       <c r="D9" s="1">
-        <v>2080.274369468604</v>
+        <v>2080.274359223245</v>
       </c>
       <c r="E9" s="1">
         <v>1716646.722167969</v>
@@ -41866,7 +41866,7 @@
         <v>1075</v>
       </c>
       <c r="D11" s="1">
-        <v>334632661.5477362</v>
+        <v>334632663.7599869</v>
       </c>
       <c r="E11" s="1">
         <v>1716646.722167969</v>
@@ -41914,7 +41914,7 @@
         <v>1077</v>
       </c>
       <c r="D13" s="1">
-        <v>194.9339122758616</v>
+        <v>194.9339135645663</v>
       </c>
       <c r="E13" s="1">
         <v>1716646.722167969</v>
@@ -41962,7 +41962,7 @@
         <v>1075</v>
       </c>
       <c r="D15" s="1">
-        <v>3905728829.343935</v>
+        <v>3905728823.730643</v>
       </c>
       <c r="E15" s="1">
         <v>1716646.722167969</v>
@@ -42010,7 +42010,7 @@
         <v>1077</v>
       </c>
       <c r="D17" s="1">
-        <v>2275.208276057729</v>
+        <v>2275.208272787812</v>
       </c>
       <c r="E17" s="1">
         <v>1716646.722167969</v>
@@ -42058,7 +42058,7 @@
         <v>1075</v>
       </c>
       <c r="D19" s="1">
-        <v>1787659171.651144</v>
+        <v>1787659165.206578</v>
       </c>
       <c r="E19" s="1">
         <v>1716646.722167969</v>
@@ -42106,7 +42106,7 @@
         <v>1077</v>
       </c>
       <c r="D21" s="1">
-        <v>1041.366956034782</v>
+        <v>1041.366952280622</v>
       </c>
       <c r="E21" s="1">
         <v>1716646.722167969</v>
@@ -42154,7 +42154,7 @@
         <v>1075</v>
       </c>
       <c r="D23" s="1">
-        <v>2462688429.366033</v>
+        <v>2462688403.141902</v>
       </c>
       <c r="E23" s="1">
         <v>1716646.722167969</v>
@@ -42202,7 +42202,7 @@
         <v>1077</v>
       </c>
       <c r="D25" s="1">
-        <v>1434.59245141358</v>
+        <v>1434.59243613721</v>
       </c>
       <c r="E25" s="1">
         <v>1716646.722167969</v>
@@ -42250,7 +42250,7 @@
         <v>1075</v>
       </c>
       <c r="D27" s="1">
-        <v>847946179.2825145</v>
+        <v>847946176.613928</v>
       </c>
       <c r="E27" s="1">
         <v>1716646.722167969</v>
@@ -42298,7 +42298,7 @@
         <v>1077</v>
       </c>
       <c r="D29" s="1">
-        <v>493.9549694952002</v>
+        <v>493.9549679406658</v>
       </c>
       <c r="E29" s="1">
         <v>1716646.722167969</v>
@@ -42346,7 +42346,7 @@
         <v>1075</v>
       </c>
       <c r="D31" s="1">
-        <v>595094225.3037218</v>
+        <v>595094243.9748125</v>
       </c>
       <c r="E31" s="1">
         <v>1716646.722167969</v>
@@ -42394,7 +42394,7 @@
         <v>1077</v>
       </c>
       <c r="D33" s="1">
-        <v>346.6608578334463</v>
+        <v>346.6608687099362</v>
       </c>
       <c r="E33" s="1">
         <v>1716646.722167969</v>
@@ -42442,7 +42442,7 @@
         <v>1075</v>
       </c>
       <c r="D35" s="1">
-        <v>1443040404.129257</v>
+        <v>1443040420.588741</v>
       </c>
       <c r="E35" s="1">
         <v>1716646.722167969</v>
@@ -42490,7 +42490,7 @@
         <v>1077</v>
       </c>
       <c r="D37" s="1">
-        <v>840.6158270624419</v>
+        <v>840.615836650602</v>
       </c>
       <c r="E37" s="1">
         <v>1716646.722167969</v>
@@ -42538,7 +42538,7 @@
         <v>1075</v>
       </c>
       <c r="D39" s="1">
-        <v>2055226981.41479</v>
+        <v>2055226995.564199</v>
       </c>
       <c r="E39" s="1">
         <v>1716646.722167969</v>
@@ -42586,7 +42586,7 @@
         <v>1077</v>
       </c>
       <c r="D41" s="1">
-        <v>1197.233510468144</v>
+        <v>1197.233518710614</v>
       </c>
       <c r="E41" s="1">
         <v>1716646.722167969</v>
@@ -42634,7 +42634,7 @@
         <v>1075</v>
       </c>
       <c r="D43" s="1">
-        <v>3599176.726469092</v>
+        <v>3599176.678695953</v>
       </c>
       <c r="E43" s="1">
         <v>1716646.722167969</v>
@@ -42682,7 +42682,7 @@
         <v>1077</v>
       </c>
       <c r="D45" s="1">
-        <v>2.0966321608232</v>
+        <v>2.096632132993864</v>
       </c>
       <c r="E45" s="1">
         <v>1716646.722167969</v>
@@ -42730,7 +42730,7 @@
         <v>1075</v>
       </c>
       <c r="D47" s="1">
-        <v>331033484.8212671</v>
+        <v>331033487.081291</v>
       </c>
       <c r="E47" s="1">
         <v>1716646.722167969</v>
@@ -42778,7 +42778,7 @@
         <v>1077</v>
       </c>
       <c r="D49" s="1">
-        <v>192.8372801150384</v>
+        <v>192.8372814315724</v>
       </c>
       <c r="E49" s="1">
         <v>1716646.722167969</v>
@@ -42826,7 +42826,7 @@
         <v>1075</v>
       </c>
       <c r="D51" s="1">
-        <v>1557235961.393063</v>
+        <v>1557235959.658657</v>
       </c>
       <c r="E51" s="1">
         <v>1733937.812744141</v>
@@ -42874,7 +42874,7 @@
         <v>1077</v>
       </c>
       <c r="D53" s="1">
-        <v>898.0921633680574</v>
+        <v>898.0921623677872</v>
       </c>
       <c r="E53" s="1">
         <v>1733937.812744141</v>
@@ -42922,7 +42922,7 @@
         <v>1075</v>
       </c>
       <c r="D55" s="1">
-        <v>6403160698.415384</v>
+        <v>6403160678.027233</v>
       </c>
       <c r="E55" s="1">
         <v>1733937.812744141</v>
@@ -42970,7 +42970,7 @@
         <v>1077</v>
       </c>
       <c r="D57" s="1">
-        <v>3692.843336913971</v>
+        <v>3692.843325155677</v>
       </c>
       <c r="E57" s="1">
         <v>1733937.812744141</v>
@@ -43018,7 +43018,7 @@
         <v>1075</v>
       </c>
       <c r="D59" s="1">
-        <v>717966558.9040785</v>
+        <v>717966564.0242786</v>
       </c>
       <c r="E59" s="1">
         <v>1733937.812744141</v>
@@ -43066,7 +43066,7 @@
         <v>1077</v>
       </c>
       <c r="D61" s="1">
-        <v>414.067075316744</v>
+        <v>414.0670782696758</v>
       </c>
       <c r="E61" s="1">
         <v>1733937.812744141</v>
@@ -43114,7 +43114,7 @@
         <v>1075</v>
       </c>
       <c r="D63" s="1">
-        <v>7121127245.076977</v>
+        <v>7121127242.051512</v>
       </c>
       <c r="E63" s="1">
         <v>1733937.812744141</v>
@@ -43162,7 +43162,7 @@
         <v>1077</v>
       </c>
       <c r="D65" s="1">
-        <v>4106.910405170204</v>
+        <v>4106.910403425352</v>
       </c>
       <c r="E65" s="1">
         <v>1733937.812744141</v>
@@ -43210,7 +43210,7 @@
         <v>1075</v>
       </c>
       <c r="D67" s="1">
-        <v>2835087255.918858</v>
+        <v>2835087245.964063</v>
       </c>
       <c r="E67" s="1">
         <v>1733937.812744141</v>
@@ -43258,7 +43258,7 @@
         <v>1077</v>
       </c>
       <c r="D69" s="1">
-        <v>1635.057056303554</v>
+        <v>1635.057050562405</v>
       </c>
       <c r="E69" s="1">
         <v>1733937.812744141</v>
@@ -43306,7 +43306,7 @@
         <v>1075</v>
       </c>
       <c r="D71" s="1">
-        <v>4392323241.171437</v>
+        <v>4392323205.62272</v>
       </c>
       <c r="E71" s="1">
         <v>1733937.812744141</v>
@@ -43354,7 +43354,7 @@
         <v>1077</v>
       </c>
       <c r="D73" s="1">
-        <v>2533.149233431919</v>
+        <v>2533.149212930193</v>
       </c>
       <c r="E73" s="1">
         <v>1733937.812744141</v>
@@ -43402,7 +43402,7 @@
         <v>1075</v>
       </c>
       <c r="D75" s="1">
-        <v>1801332664.057378</v>
+        <v>1801332658.295825</v>
       </c>
       <c r="E75" s="1">
         <v>1733937.812744141</v>
@@ -43450,7 +43450,7 @@
         <v>1077</v>
       </c>
       <c r="D77" s="1">
-        <v>1038.868090203638</v>
+        <v>1038.868086880823</v>
       </c>
       <c r="E77" s="1">
         <v>1733937.812744141</v>
@@ -43498,7 +43498,7 @@
         <v>1075</v>
       </c>
       <c r="D79" s="1">
-        <v>927471349.8168947</v>
+        <v>927471378.1329675</v>
       </c>
       <c r="E79" s="1">
         <v>1733937.812744141</v>
@@ -43546,7 +43546,7 @@
         <v>1077</v>
       </c>
       <c r="D81" s="1">
-        <v>534.8930872838356</v>
+        <v>534.8931036143364</v>
       </c>
       <c r="E81" s="1">
         <v>1733937.812744141</v>
@@ -43594,7 +43594,7 @@
         <v>1075</v>
       </c>
       <c r="D83" s="1">
-        <v>2728804013.020724</v>
+        <v>2728804036.428792</v>
       </c>
       <c r="E83" s="1">
         <v>1733937.812744141</v>
@@ -43642,7 +43642,7 @@
         <v>1077</v>
       </c>
       <c r="D85" s="1">
-        <v>1573.761176995213</v>
+        <v>1573.76119049516</v>
       </c>
       <c r="E85" s="1">
         <v>1733937.812744141</v>
@@ -43690,7 +43690,7 @@
         <v>1075</v>
       </c>
       <c r="D87" s="1">
-        <v>4507647268.607194</v>
+        <v>4507647282.917536</v>
       </c>
       <c r="E87" s="1">
         <v>1733937.812744141</v>
@@ -43738,7 +43738,7 @@
         <v>1077</v>
       </c>
       <c r="D89" s="1">
-        <v>2599.659131646344</v>
+        <v>2599.659139899432</v>
       </c>
       <c r="E89" s="1">
         <v>1733937.812744141</v>
@@ -43786,7 +43786,7 @@
         <v>1075</v>
       </c>
       <c r="D91" s="1">
-        <v>37832127.01247828</v>
+        <v>37832124.47798606</v>
       </c>
       <c r="E91" s="1">
         <v>1733937.812744141</v>
@@ -43834,7 +43834,7 @@
         <v>1077</v>
       </c>
       <c r="D93" s="1">
-        <v>21.8186181386776</v>
+        <v>21.81861667698031</v>
       </c>
       <c r="E93" s="1">
         <v>1733937.812744141</v>
@@ -43882,7 +43882,7 @@
         <v>1075</v>
       </c>
       <c r="D95" s="1">
-        <v>680134431.373354</v>
+        <v>680134439.5462927</v>
       </c>
       <c r="E95" s="1">
         <v>1733937.812744141</v>
@@ -43930,7 +43930,7 @@
         <v>1077</v>
       </c>
       <c r="D97" s="1">
-        <v>392.2484568791824</v>
+        <v>392.2484615926956</v>
       </c>
       <c r="E97" s="1">
         <v>1733937.812744141</v>
@@ -43978,7 +43978,7 @@
         <v>1075</v>
       </c>
       <c r="D99" s="1">
-        <v>1855219417.918811</v>
+        <v>1855219429.147836</v>
       </c>
       <c r="E99" s="1">
         <v>1719001.358955383</v>
@@ -44026,7 +44026,7 @@
         <v>1077</v>
       </c>
       <c r="D101" s="1">
-        <v>1079.24255455284</v>
+        <v>1079.242561085136</v>
       </c>
       <c r="E101" s="1">
         <v>1719001.358955383</v>
@@ -44074,7 +44074,7 @@
         <v>1075</v>
       </c>
       <c r="D103" s="1">
-        <v>8472730178.562547</v>
+        <v>8472730155.08279</v>
       </c>
       <c r="E103" s="1">
         <v>1719001.358955383</v>
@@ -44122,7 +44122,7 @@
         <v>1077</v>
       </c>
       <c r="D105" s="1">
-        <v>4928.86764424161</v>
+        <v>4928.867630582658</v>
       </c>
       <c r="E105" s="1">
         <v>1719001.358955383</v>
@@ -44170,7 +44170,7 @@
         <v>1075</v>
       </c>
       <c r="D107" s="1">
-        <v>755712222.024151</v>
+        <v>755712221.5111957</v>
       </c>
       <c r="E107" s="1">
         <v>1719001.358955383</v>
@@ -44218,7 +44218,7 @@
         <v>1077</v>
       </c>
       <c r="D109" s="1">
-        <v>439.6228182643138</v>
+        <v>439.6228179659107</v>
       </c>
       <c r="E109" s="1">
         <v>1719001.358955383</v>
@@ -44266,7 +44266,7 @@
         <v>1075</v>
       </c>
       <c r="D111" s="1">
-        <v>9228442359.312304</v>
+        <v>9228442376.593987</v>
       </c>
       <c r="E111" s="1">
         <v>1719001.358955383</v>
@@ -44314,7 +44314,7 @@
         <v>1077</v>
       </c>
       <c r="D113" s="1">
-        <v>5368.490438495242</v>
+        <v>5368.490448548569</v>
       </c>
       <c r="E113" s="1">
         <v>1719001.358955383</v>
@@ -44362,7 +44362,7 @@
         <v>1075</v>
       </c>
       <c r="D115" s="1">
-        <v>3439940226.14873</v>
+        <v>3439940199.903222</v>
       </c>
       <c r="E115" s="1">
         <v>1719001.358955383</v>
@@ -44410,7 +44410,7 @@
         <v>1077</v>
       </c>
       <c r="D117" s="1">
-        <v>2001.127112685438</v>
+        <v>2001.127097417557</v>
       </c>
       <c r="E117" s="1">
         <v>1719001.358955383</v>
@@ -44458,7 +44458,7 @@
         <v>1075</v>
       </c>
       <c r="D119" s="1">
-        <v>5295159680.939695</v>
+        <v>5295159629.051059</v>
       </c>
       <c r="E119" s="1">
         <v>1719001.358955383</v>
@@ -44506,7 +44506,7 @@
         <v>1077</v>
       </c>
       <c r="D121" s="1">
-        <v>3080.36968868803</v>
+        <v>3080.369658502693</v>
       </c>
       <c r="E121" s="1">
         <v>1719001.358955383</v>
@@ -44554,7 +44554,7 @@
         <v>1075</v>
       </c>
       <c r="D123" s="1">
-        <v>2808541607.056829</v>
+        <v>2808541606.984927</v>
       </c>
       <c r="E123" s="1">
         <v>1719001.358955383</v>
@@ -44602,7 +44602,7 @@
         <v>1077</v>
       </c>
       <c r="D125" s="1">
-        <v>1633.821632790067</v>
+        <v>1633.821632748239</v>
       </c>
       <c r="E125" s="1">
         <v>1719001.358955383</v>
@@ -44650,7 +44650,7 @@
         <v>1075</v>
       </c>
       <c r="D127" s="1">
-        <v>1124741103.79867</v>
+        <v>1124741140.558001</v>
       </c>
       <c r="E127" s="1">
         <v>1719001.358955383</v>
@@ -44698,7 +44698,7 @@
         <v>1077</v>
       </c>
       <c r="D129" s="1">
-        <v>654.2991359135176</v>
+        <v>654.2991572976375</v>
       </c>
       <c r="E129" s="1">
         <v>1719001.358955383</v>
@@ -44746,7 +44746,7 @@
         <v>1075</v>
       </c>
       <c r="D131" s="1">
-        <v>3933282708.271733</v>
+        <v>3933282747.542928</v>
       </c>
       <c r="E131" s="1">
         <v>1719001.358955383</v>
@@ -44794,7 +44794,7 @@
         <v>1077</v>
       </c>
       <c r="D133" s="1">
-        <v>2288.120767200523</v>
+        <v>2288.120790045877</v>
       </c>
       <c r="E133" s="1">
         <v>1719001.358955383</v>
@@ -44842,7 +44842,7 @@
         <v>1075</v>
       </c>
       <c r="D135" s="1">
-        <v>7089011614.092546</v>
+        <v>7089011641.785209</v>
       </c>
       <c r="E135" s="1">
         <v>1719001.358955383</v>
@@ -44890,7 +44890,7 @@
         <v>1077</v>
       </c>
       <c r="D137" s="1">
-        <v>4123.912745712111</v>
+        <v>4123.91276182185</v>
       </c>
       <c r="E137" s="1">
         <v>1719001.358955383</v>
@@ -44938,7 +44938,7 @@
         <v>1075</v>
       </c>
       <c r="D139" s="1">
-        <v>56526854.88871546</v>
+        <v>56526856.94453757</v>
       </c>
       <c r="E139" s="1">
         <v>1719001.358955383</v>
@@ -44986,7 +44986,7 @@
         <v>1077</v>
       </c>
       <c r="D141" s="1">
-        <v>32.88354287460608</v>
+        <v>32.88354407054586</v>
       </c>
       <c r="E141" s="1">
         <v>1719001.358955383</v>
@@ -45034,7 +45034,7 @@
         <v>1075</v>
       </c>
       <c r="D143" s="1">
-        <v>699185364.8218199</v>
+        <v>699185364.566658</v>
       </c>
       <c r="E143" s="1">
         <v>1719001.358955383</v>
@@ -45082,7 +45082,7 @@
         <v>1077</v>
       </c>
       <c r="D145" s="1">
-        <v>406.7392740438009</v>
+        <v>406.7392738953648</v>
       </c>
       <c r="E145" s="1">
         <v>1719001.358955383</v>
@@ -45130,7 +45130,7 @@
         <v>1075</v>
       </c>
       <c r="D147" s="1">
-        <v>2558126052.855764</v>
+        <v>2558126058.444163</v>
       </c>
       <c r="E147" s="1">
         <v>1733452.398880005</v>
@@ -45178,7 +45178,7 @@
         <v>1077</v>
       </c>
       <c r="D149" s="1">
-        <v>1475.740582498018</v>
+        <v>1475.740585721873</v>
       </c>
       <c r="E149" s="1">
         <v>1733452.398880005</v>
@@ -45226,7 +45226,7 @@
         <v>1075</v>
       </c>
       <c r="D151" s="1">
-        <v>11621929080.55696</v>
+        <v>11621929158.97032</v>
       </c>
       <c r="E151" s="1">
         <v>1733452.398880005</v>
@@ -45274,7 +45274,7 @@
         <v>1077</v>
       </c>
       <c r="D153" s="1">
-        <v>6704.49854179207</v>
+        <v>6704.498587027442</v>
       </c>
       <c r="E153" s="1">
         <v>1733452.398880005</v>
@@ -45322,7 +45322,7 @@
         <v>1075</v>
       </c>
       <c r="D155" s="1">
-        <v>960356083.2690626</v>
+        <v>960356088.156191</v>
       </c>
       <c r="E155" s="1">
         <v>1733452.398880005</v>
@@ -45370,7 +45370,7 @@
         <v>1077</v>
       </c>
       <c r="D157" s="1">
-        <v>554.0135303914634</v>
+        <v>554.0135332107668</v>
       </c>
       <c r="E157" s="1">
         <v>1733452.398880005</v>
@@ -45418,7 +45418,7 @@
         <v>1075</v>
       </c>
       <c r="D159" s="1">
-        <v>12582285209.90087</v>
+        <v>12582285247.12651</v>
       </c>
       <c r="E159" s="1">
         <v>1733452.398880005</v>
@@ -45466,7 +45466,7 @@
         <v>1077</v>
       </c>
       <c r="D161" s="1">
-        <v>7258.512098763352</v>
+        <v>7258.51212023821</v>
       </c>
       <c r="E161" s="1">
         <v>1733452.398880005</v>
@@ -45514,7 +45514,7 @@
         <v>1075</v>
       </c>
       <c r="D163" s="1">
-        <v>4370256580.003346</v>
+        <v>4370256550.13678</v>
       </c>
       <c r="E163" s="1">
         <v>1733452.398880005</v>
@@ -45562,7 +45562,7 @@
         <v>1077</v>
       </c>
       <c r="D165" s="1">
-        <v>2521.128692560002</v>
+        <v>2521.128675330474</v>
       </c>
       <c r="E165" s="1">
         <v>1733452.398880005</v>
@@ -45610,7 +45610,7 @@
         <v>1075</v>
       </c>
       <c r="D167" s="1">
-        <v>6928382621.464953</v>
+        <v>6928382608.580943</v>
       </c>
       <c r="E167" s="1">
         <v>1733452.398880005</v>
@@ -45658,7 +45658,7 @@
         <v>1077</v>
       </c>
       <c r="D169" s="1">
-        <v>3996.869268484919</v>
+        <v>3996.869261052347</v>
       </c>
       <c r="E169" s="1">
         <v>1733452.398880005</v>
@@ -45706,7 +45706,7 @@
         <v>1075</v>
       </c>
       <c r="D171" s="1">
-        <v>4273443172.590005</v>
+        <v>4273443214.7667</v>
       </c>
       <c r="E171" s="1">
         <v>1733452.398880005</v>
@@ -45754,7 +45754,7 @@
         <v>1077</v>
       </c>
       <c r="D173" s="1">
-        <v>2465.278640100591</v>
+        <v>2465.278664431628</v>
       </c>
       <c r="E173" s="1">
         <v>1733452.398880005</v>
@@ -45802,7 +45802,7 @@
         <v>1075</v>
       </c>
       <c r="D175" s="1">
-        <v>1380459377.544986</v>
+        <v>1380459423.778871</v>
       </c>
       <c r="E175" s="1">
         <v>1733452.398880005</v>
@@ -45850,7 +45850,7 @@
         <v>1077</v>
       </c>
       <c r="D177" s="1">
-        <v>796.3641680826715</v>
+        <v>796.3641947542343</v>
       </c>
       <c r="E177" s="1">
         <v>1733452.398880005</v>
@@ -45898,7 +45898,7 @@
         <v>1075</v>
       </c>
       <c r="D179" s="1">
-        <v>5653902558.623302</v>
+        <v>5653902638.545571</v>
       </c>
       <c r="E179" s="1">
         <v>1733452.398880005</v>
@@ -45946,7 +45946,7 @@
         <v>1077</v>
       </c>
       <c r="D181" s="1">
-        <v>3261.642813080028</v>
+        <v>3261.642859185863</v>
       </c>
       <c r="E181" s="1">
         <v>1733452.398880005</v>
@@ -45994,7 +45994,7 @@
         <v>1075</v>
       </c>
       <c r="D183" s="1">
-        <v>10646852420.74653</v>
+        <v>10646852463.23067</v>
       </c>
       <c r="E183" s="1">
         <v>1733452.398880005</v>
@@ -46042,7 +46042,7 @@
         <v>1077</v>
       </c>
       <c r="D185" s="1">
-        <v>6141.992954421786</v>
+        <v>6141.992978930179</v>
       </c>
       <c r="E185" s="1">
         <v>1733452.398880005</v>
@@ -46090,7 +46090,7 @@
         <v>1075</v>
       </c>
       <c r="D187" s="1">
-        <v>35545275.17224332</v>
+        <v>35545276.07159918</v>
       </c>
       <c r="E187" s="1">
         <v>1733452.398880005</v>
@@ -46138,7 +46138,7 @@
         <v>1077</v>
       </c>
       <c r="D189" s="1">
-        <v>20.50548096688975</v>
+        <v>20.50548148571326</v>
       </c>
       <c r="E189" s="1">
         <v>1733452.398880005</v>
@@ -46186,7 +46186,7 @@
         <v>1075</v>
       </c>
       <c r="D191" s="1">
-        <v>924810808.1653118</v>
+        <v>924810812.0845917</v>
       </c>
       <c r="E191" s="1">
         <v>1733452.398880005</v>
@@ -46234,7 +46234,7 @@
         <v>1077</v>
       </c>
       <c r="D193" s="1">
-        <v>533.5080494640858</v>
+        <v>533.5080517250535</v>
       </c>
       <c r="E193" s="1">
         <v>1733452.398880005</v>
@@ -46282,7 +46282,7 @@
         <v>1075</v>
       </c>
       <c r="D195" s="1">
-        <v>3721350463.724823</v>
+        <v>3721350433.011301</v>
       </c>
       <c r="E195" s="1">
         <v>1725920.39100647</v>
@@ -46330,7 +46330,7 @@
         <v>1077</v>
       </c>
       <c r="D197" s="1">
-        <v>2156.154179020226</v>
+        <v>2156.154161224781</v>
       </c>
       <c r="E197" s="1">
         <v>1725920.39100647</v>
@@ -46378,7 +46378,7 @@
         <v>1075</v>
       </c>
       <c r="D199" s="1">
-        <v>14447790999.13684</v>
+        <v>14447790884.7555</v>
       </c>
       <c r="E199" s="1">
         <v>1725920.39100647</v>
@@ -46426,7 +46426,7 @@
         <v>1077</v>
       </c>
       <c r="D201" s="1">
-        <v>8371.064548760338</v>
+        <v>8371.064482487674</v>
       </c>
       <c r="E201" s="1">
         <v>1725920.39100647</v>
@@ -46474,7 +46474,7 @@
         <v>1075</v>
       </c>
       <c r="D203" s="1">
-        <v>1344139401.172089</v>
+        <v>1344139405.361763</v>
       </c>
       <c r="E203" s="1">
         <v>1725920.39100647</v>
@@ -46522,7 +46522,7 @@
         <v>1077</v>
       </c>
       <c r="D205" s="1">
-        <v>778.795712812834</v>
+        <v>778.7957152403355</v>
       </c>
       <c r="E205" s="1">
         <v>1725920.39100647</v>
@@ -46570,7 +46570,7 @@
         <v>1075</v>
       </c>
       <c r="D207" s="1">
-        <v>15791930471.17026</v>
+        <v>15791930290.11726</v>
       </c>
       <c r="E207" s="1">
         <v>1725920.39100647</v>
@@ -46618,7 +46618,7 @@
         <v>1077</v>
       </c>
       <c r="D209" s="1">
-        <v>9149.860302630299</v>
+        <v>9149.860197728009</v>
       </c>
       <c r="E209" s="1">
         <v>1725920.39100647</v>
@@ -46666,7 +46666,7 @@
         <v>1075</v>
       </c>
       <c r="D211" s="1">
-        <v>5196283825.378263</v>
+        <v>5196283789.201163</v>
       </c>
       <c r="E211" s="1">
         <v>1725920.39100647</v>
@@ -46714,7 +46714,7 @@
         <v>1077</v>
       </c>
       <c r="D213" s="1">
-        <v>3010.732043294333</v>
+        <v>3010.732022333285</v>
       </c>
       <c r="E213" s="1">
         <v>1725920.39100647</v>
@@ -46762,7 +46762,7 @@
         <v>1075</v>
       </c>
       <c r="D215" s="1">
-        <v>8917634332.614849</v>
+        <v>8917634222.212463</v>
       </c>
       <c r="E215" s="1">
         <v>1725920.39100647</v>
@@ -46810,7 +46810,7 @@
         <v>1077</v>
       </c>
       <c r="D217" s="1">
-        <v>5166.886247525319</v>
+        <v>5166.886183558066</v>
       </c>
       <c r="E217" s="1">
         <v>1725920.39100647</v>
@@ -46858,7 +46858,7 @@
         <v>1075</v>
       </c>
       <c r="D219" s="1">
-        <v>5188882901.592925</v>
+        <v>5188882908.401187</v>
       </c>
       <c r="E219" s="1">
         <v>1725920.39100647</v>
@@ -46906,7 +46906,7 @@
         <v>1077</v>
       </c>
       <c r="D221" s="1">
-        <v>3006.443940654198</v>
+        <v>3006.443944598912</v>
       </c>
       <c r="E221" s="1">
         <v>1725920.39100647</v>
@@ -46954,7 +46954,7 @@
         <v>1075</v>
       </c>
       <c r="D223" s="1">
-        <v>1685413107.321789</v>
+        <v>1685413159.503609</v>
       </c>
       <c r="E223" s="1">
         <v>1725920.39100647</v>
@@ -47002,7 +47002,7 @@
         <v>1077</v>
       </c>
       <c r="D225" s="1">
-        <v>976.5300393368324</v>
+        <v>976.5300695710312</v>
       </c>
       <c r="E225" s="1">
         <v>1725920.39100647</v>
@@ -47050,7 +47050,7 @@
         <v>1075</v>
       </c>
       <c r="D227" s="1">
-        <v>6874296051.492889</v>
+        <v>6874296067.904797</v>
       </c>
       <c r="E227" s="1">
         <v>1725920.39100647</v>
@@ -47098,7 +47098,7 @@
         <v>1077</v>
       </c>
       <c r="D229" s="1">
-        <v>3982.974004660868</v>
+        <v>3982.974014169943</v>
       </c>
       <c r="E229" s="1">
         <v>1725920.39100647</v>
@@ -47146,7 +47146,7 @@
         <v>1075</v>
       </c>
       <c r="D231" s="1">
-        <v>12787019073.76465</v>
+        <v>12787019102.64856</v>
       </c>
       <c r="E231" s="1">
         <v>1725920.39100647</v>
@@ -47194,7 +47194,7 @@
         <v>1077</v>
       </c>
       <c r="D233" s="1">
-        <v>7408.81163487958</v>
+        <v>7408.811651614946</v>
       </c>
       <c r="E233" s="1">
         <v>1725920.39100647</v>
@@ -47242,7 +47242,7 @@
         <v>1075</v>
       </c>
       <c r="D235" s="1">
-        <v>31372996.48294186</v>
+        <v>31372996.53550914</v>
       </c>
       <c r="E235" s="1">
         <v>1725920.39100647</v>
@@ -47290,7 +47290,7 @@
         <v>1077</v>
       </c>
       <c r="D237" s="1">
-        <v>18.17754552667792</v>
+        <v>18.17754555713545</v>
       </c>
       <c r="E237" s="1">
         <v>1725920.39100647</v>
@@ -47338,7 +47338,7 @@
         <v>1075</v>
       </c>
       <c r="D239" s="1">
-        <v>1312766404.675125</v>
+        <v>1312766408.826254</v>
       </c>
       <c r="E239" s="1">
         <v>1725920.39100647</v>
@@ -47386,7 +47386,7 @@
         <v>1077</v>
       </c>
       <c r="D241" s="1">
-        <v>760.6181672780318</v>
+        <v>760.6181696832001</v>
       </c>
       <c r="E241" s="1">
         <v>1725920.39100647</v>
@@ -47434,7 +47434,7 @@
         <v>1075</v>
       </c>
       <c r="D243" s="1">
-        <v>5219453880.088962</v>
+        <v>5219453805.456301</v>
       </c>
       <c r="E243" s="1">
         <v>1726033.900550842</v>
@@ -47482,7 +47482,7 @@
         <v>1077</v>
       </c>
       <c r="D245" s="1">
-        <v>3023.957917873593</v>
+        <v>3023.957874634199</v>
       </c>
       <c r="E245" s="1">
         <v>1726033.900550842</v>
@@ -47530,7 +47530,7 @@
         <v>1075</v>
       </c>
       <c r="D247" s="1">
-        <v>19224562771.94306</v>
+        <v>19224562752.30463</v>
       </c>
       <c r="E247" s="1">
         <v>1726033.900550842</v>
@@ -47578,7 +47578,7 @@
         <v>1077</v>
       </c>
       <c r="D249" s="1">
-        <v>11137.99837060429</v>
+        <v>11137.99835922652</v>
       </c>
       <c r="E249" s="1">
         <v>1726033.900550842</v>
@@ -47626,7 +47626,7 @@
         <v>1075</v>
       </c>
       <c r="D251" s="1">
-        <v>1953087346.697881</v>
+        <v>1953087362.8826</v>
       </c>
       <c r="E251" s="1">
         <v>1726033.900550842</v>
@@ -47674,7 +47674,7 @@
         <v>1077</v>
       </c>
       <c r="D253" s="1">
-        <v>1131.546342209488</v>
+        <v>1131.546351586314</v>
       </c>
       <c r="E253" s="1">
         <v>1726033.900550842</v>
@@ -47722,7 +47722,7 @@
         <v>1075</v>
       </c>
       <c r="D255" s="1">
-        <v>21177650158.95035</v>
+        <v>21177650115.18724</v>
       </c>
       <c r="E255" s="1">
         <v>1726033.900550842</v>
@@ -47770,7 +47770,7 @@
         <v>1077</v>
       </c>
       <c r="D257" s="1">
-        <v>12269.54473616756</v>
+        <v>12269.54471081284</v>
       </c>
       <c r="E257" s="1">
         <v>1726033.900550842</v>
@@ -47818,7 +47818,7 @@
         <v>1075</v>
       </c>
       <c r="D259" s="1">
-        <v>6092186698.464966</v>
+        <v>6092186667.633265</v>
       </c>
       <c r="E259" s="1">
         <v>1726033.900550842</v>
@@ -47866,7 +47866,7 @@
         <v>1077</v>
       </c>
       <c r="D261" s="1">
-        <v>3529.586931357907</v>
+        <v>3529.586913495163</v>
       </c>
       <c r="E261" s="1">
         <v>1726033.900550842</v>
@@ -47914,7 +47914,7 @@
         <v>1075</v>
       </c>
       <c r="D263" s="1">
-        <v>11311640555.6669</v>
+        <v>11311640473.08957</v>
       </c>
       <c r="E263" s="1">
         <v>1726033.900550842</v>
@@ -47962,7 +47962,7 @@
         <v>1077</v>
       </c>
       <c r="D265" s="1">
-        <v>6553.544835971605</v>
+        <v>6553.544788129361</v>
       </c>
       <c r="E265" s="1">
         <v>1726033.900550842</v>
@@ -48010,7 +48010,7 @@
         <v>1075</v>
       </c>
       <c r="D267" s="1">
-        <v>7895559542.06804</v>
+        <v>7895559555.337238</v>
       </c>
       <c r="E267" s="1">
         <v>1726033.900550842</v>
@@ -48058,7 +48058,7 @@
         <v>1077</v>
       </c>
       <c r="D269" s="1">
-        <v>4574.394245413297</v>
+        <v>4574.394253100978</v>
       </c>
       <c r="E269" s="1">
         <v>1726033.900550842</v>
@@ -48106,7 +48106,7 @@
         <v>1075</v>
       </c>
       <c r="D271" s="1">
-        <v>1970450020.146423</v>
+        <v>1970450086.760433</v>
       </c>
       <c r="E271" s="1">
         <v>1726033.900550842</v>
@@ -48154,7 +48154,7 @@
         <v>1077</v>
       </c>
       <c r="D273" s="1">
-        <v>1141.605630988811</v>
+        <v>1141.605669582497</v>
       </c>
       <c r="E273" s="1">
         <v>1726033.900550842</v>
@@ -48202,7 +48202,7 @@
         <v>1075</v>
       </c>
       <c r="D275" s="1">
-        <v>9866009577.130232</v>
+        <v>9866009642.097672</v>
       </c>
       <c r="E275" s="1">
         <v>1726033.900550842</v>
@@ -48250,7 +48250,7 @@
         <v>1077</v>
       </c>
       <c r="D277" s="1">
-        <v>5715.999885043751</v>
+        <v>5715.999922683475</v>
       </c>
       <c r="E277" s="1">
         <v>1726033.900550842</v>
@@ -48298,7 +48298,7 @@
         <v>1075</v>
       </c>
       <c r="D279" s="1">
-        <v>19994460210.04287</v>
+        <v>19994460239.89693</v>
       </c>
       <c r="E279" s="1">
         <v>1726033.900550842</v>
@@ -48346,7 +48346,7 @@
         <v>1077</v>
       </c>
       <c r="D281" s="1">
-        <v>11584.0483803139</v>
+        <v>11584.04839761024</v>
       </c>
       <c r="E281" s="1">
         <v>1726033.900550842</v>
@@ -48394,7 +48394,7 @@
         <v>1075</v>
       </c>
       <c r="D283" s="1">
-        <v>151619761.1956423</v>
+        <v>151619759.2698532</v>
       </c>
       <c r="E283" s="1">
         <v>1726033.900550842</v>
@@ -48442,7 +48442,7 @@
         <v>1077</v>
       </c>
       <c r="D285" s="1">
-        <v>87.84286400588928</v>
+        <v>87.84286289015857</v>
       </c>
       <c r="E285" s="1">
         <v>1726033.900550842</v>
@@ -48490,7 +48490,7 @@
         <v>1075</v>
       </c>
       <c r="D287" s="1">
-        <v>1801467585.906196</v>
+        <v>1801467603.612747</v>
       </c>
       <c r="E287" s="1">
         <v>1726033.900550842</v>
@@ -48538,7 +48538,7 @@
         <v>1077</v>
       </c>
       <c r="D289" s="1">
-        <v>1043.703478437637</v>
+        <v>1043.703488696155</v>
       </c>
       <c r="E289" s="1">
         <v>1726033.900550842</v>
@@ -48586,7 +48586,7 @@
         <v>1075</v>
       </c>
       <c r="D291" s="1">
-        <v>7012140904.367723</v>
+        <v>7012140854.199503</v>
       </c>
       <c r="E291" s="1">
         <v>1724097.657348633</v>
@@ -48634,7 +48634,7 @@
         <v>1077</v>
       </c>
       <c r="D293" s="1">
-        <v>4067.13672771367</v>
+        <v>4067.136698615423</v>
       </c>
       <c r="E293" s="1">
         <v>1724097.657348633</v>
@@ -48682,7 +48682,7 @@
         <v>1075</v>
       </c>
       <c r="D295" s="1">
-        <v>25523926571.07487</v>
+        <v>25523926602.87868</v>
       </c>
       <c r="E295" s="1">
         <v>1724097.657348633</v>
@@ -48730,7 +48730,7 @@
         <v>1077</v>
       </c>
       <c r="D297" s="1">
-        <v>14804.22321919183</v>
+        <v>14804.22323763847</v>
       </c>
       <c r="E297" s="1">
         <v>1724097.657348633</v>
@@ -48778,7 +48778,7 @@
         <v>1075</v>
       </c>
       <c r="D299" s="1">
-        <v>2494125478.163809</v>
+        <v>2494125497.330459</v>
       </c>
       <c r="E299" s="1">
         <v>1724097.657348633</v>
@@ -48826,7 +48826,7 @@
         <v>1077</v>
       </c>
       <c r="D301" s="1">
-        <v>1446.626568705712</v>
+        <v>1446.626579822628</v>
       </c>
       <c r="E301" s="1">
         <v>1724097.657348633</v>
@@ -48874,7 +48874,7 @@
         <v>1075</v>
       </c>
       <c r="D303" s="1">
-        <v>28018052047.83155</v>
+        <v>28018052100.20914</v>
       </c>
       <c r="E303" s="1">
         <v>1724097.657348633</v>
@@ -48922,7 +48922,7 @@
         <v>1077</v>
       </c>
       <c r="D305" s="1">
-        <v>16250.84978708139</v>
+        <v>16250.8498174611</v>
       </c>
       <c r="E305" s="1">
         <v>1724097.657348633</v>
@@ -48970,7 +48970,7 @@
         <v>1075</v>
       </c>
       <c r="D307" s="1">
-        <v>7482553028.908108</v>
+        <v>7482552968.520494</v>
       </c>
       <c r="E307" s="1">
         <v>1724097.657348633</v>
@@ -49018,7 +49018,7 @@
         <v>1077</v>
       </c>
       <c r="D309" s="1">
-        <v>4339.98213327138</v>
+        <v>4339.982098245745</v>
       </c>
       <c r="E309" s="1">
         <v>1724097.657348633</v>
@@ -49066,7 +49066,7 @@
         <v>1075</v>
       </c>
       <c r="D311" s="1">
-        <v>14494693934.80167</v>
+        <v>14494693822.72</v>
       </c>
       <c r="E311" s="1">
         <v>1724097.657348633</v>
@@ -49114,7 +49114,7 @@
         <v>1077</v>
       </c>
       <c r="D313" s="1">
-        <v>8407.118861870056</v>
+        <v>8407.118796861168</v>
       </c>
       <c r="E313" s="1">
         <v>1724097.657348633</v>
@@ -49162,7 +49162,7 @@
         <v>1075</v>
       </c>
       <c r="D315" s="1">
-        <v>11102225734.01867</v>
+        <v>11102225792.19946</v>
       </c>
       <c r="E315" s="1">
         <v>1724097.657348633</v>
@@ -49210,7 +49210,7 @@
         <v>1077</v>
       </c>
       <c r="D317" s="1">
-        <v>6439.441342952692</v>
+        <v>6439.441376698335</v>
       </c>
       <c r="E317" s="1">
         <v>1724097.657348633</v>
@@ -49258,7 +49258,7 @@
         <v>1075</v>
       </c>
       <c r="D319" s="1">
-        <v>2421132416.48122</v>
+        <v>2421132485.289693</v>
       </c>
       <c r="E319" s="1">
         <v>1724097.657348633</v>
@@ -49306,7 +49306,7 @@
         <v>1077</v>
       </c>
       <c r="D321" s="1">
-        <v>1404.289603991753</v>
+        <v>1404.289643901599</v>
       </c>
       <c r="E321" s="1">
         <v>1724097.657348633</v>
@@ -49354,7 +49354,7 @@
         <v>1075</v>
       </c>
       <c r="D323" s="1">
-        <v>13523358154.90093</v>
+        <v>13523358277.48915</v>
       </c>
       <c r="E323" s="1">
         <v>1724097.657348633</v>
@@ -49402,7 +49402,7 @@
         <v>1077</v>
       </c>
       <c r="D325" s="1">
-        <v>7843.730949497107</v>
+        <v>7843.731020599934</v>
       </c>
       <c r="E325" s="1">
         <v>1724097.657348633</v>
@@ -49450,7 +49450,7 @@
         <v>1075</v>
       </c>
       <c r="D327" s="1">
-        <v>27934739814.90338</v>
+        <v>27934739811.17214</v>
       </c>
       <c r="E327" s="1">
         <v>1724097.657348633</v>
@@ -49498,7 +49498,7 @@
         <v>1077</v>
       </c>
       <c r="D329" s="1">
-        <v>16202.52756323689</v>
+        <v>16202.52756107272</v>
       </c>
       <c r="E329" s="1">
         <v>1724097.657348633</v>
@@ -49546,7 +49546,7 @@
         <v>1075</v>
       </c>
       <c r="D331" s="1">
-        <v>222387765.1976826</v>
+        <v>222387761.9300585</v>
       </c>
       <c r="E331" s="1">
         <v>1724097.657348633</v>
@@ -49594,7 +49594,7 @@
         <v>1077</v>
       </c>
       <c r="D333" s="1">
-        <v>128.9879168095831</v>
+        <v>128.9879149143169</v>
       </c>
       <c r="E333" s="1">
         <v>1724097.657348633</v>
@@ -49642,7 +49642,7 @@
         <v>1075</v>
       </c>
       <c r="D335" s="1">
-        <v>2271737716.381329</v>
+        <v>2271737735.4004</v>
       </c>
       <c r="E335" s="1">
         <v>1724097.657348633</v>
@@ -49690,7 +49690,7 @@
         <v>1077</v>
       </c>
       <c r="D337" s="1">
-        <v>1317.638653876993</v>
+        <v>1317.638664908312</v>
       </c>
       <c r="E337" s="1">
         <v>1724097.657348633</v>
@@ -49738,7 +49738,7 @@
         <v>1075</v>
       </c>
       <c r="D339" s="1">
-        <v>10768425690.14104</v>
+        <v>10768425602.98171</v>
       </c>
       <c r="E339" s="1">
         <v>1725958.230340958</v>
@@ -49786,7 +49786,7 @@
         <v>1077</v>
       </c>
       <c r="D341" s="1">
-        <v>6239.099823414484</v>
+        <v>6239.099772915387</v>
       </c>
       <c r="E341" s="1">
         <v>1725958.230340958</v>
@@ -49834,7 +49834,7 @@
         <v>1075</v>
       </c>
       <c r="D343" s="1">
-        <v>33461420910.59419</v>
+        <v>33461420901.96559</v>
       </c>
       <c r="E343" s="1">
         <v>1725958.230340958</v>
@@ -49882,7 +49882,7 @@
         <v>1077</v>
       </c>
       <c r="D345" s="1">
-        <v>19387.15568104101</v>
+        <v>19387.1556760417</v>
       </c>
       <c r="E345" s="1">
         <v>1725958.230340958</v>
@@ -49930,7 +49930,7 @@
         <v>1075</v>
       </c>
       <c r="D347" s="1">
-        <v>3941824310.234565</v>
+        <v>3941824326.755847</v>
       </c>
       <c r="E347" s="1">
         <v>1725958.230340958</v>
@@ -49978,7 +49978,7 @@
         <v>1077</v>
       </c>
       <c r="D349" s="1">
-        <v>2283.846874704418</v>
+        <v>2283.846884276656</v>
       </c>
       <c r="E349" s="1">
         <v>1725958.230340958</v>
@@ -50026,7 +50026,7 @@
         <v>1075</v>
       </c>
       <c r="D351" s="1">
-        <v>37403244993.89172</v>
+        <v>37403245228.72144</v>
       </c>
       <c r="E351" s="1">
         <v>1725958.230340958</v>
@@ -50074,7 +50074,7 @@
         <v>1077</v>
       </c>
       <c r="D353" s="1">
-        <v>21671.00242426077</v>
+        <v>21671.00256031836</v>
       </c>
       <c r="E353" s="1">
         <v>1725958.230340958</v>
@@ -50122,7 +50122,7 @@
         <v>1075</v>
       </c>
       <c r="D355" s="1">
-        <v>9161500314.408278</v>
+        <v>9161500229.222645</v>
       </c>
       <c r="E355" s="1">
         <v>1725958.230340958</v>
@@ -50170,7 +50170,7 @@
         <v>1077</v>
       </c>
       <c r="D357" s="1">
-        <v>5308.066066348808</v>
+        <v>5308.06601699325</v>
       </c>
       <c r="E357" s="1">
         <v>1725958.230340958</v>
@@ -50218,7 +50218,7 @@
         <v>1075</v>
       </c>
       <c r="D359" s="1">
-        <v>19929925995.11875</v>
+        <v>19929925832.20436</v>
       </c>
       <c r="E359" s="1">
         <v>1725958.230340958</v>
@@ -50266,7 +50266,7 @@
         <v>1077</v>
       </c>
       <c r="D361" s="1">
-        <v>11547.16588429933</v>
+        <v>11547.16578990864</v>
       </c>
       <c r="E361" s="1">
         <v>1725958.230340958</v>
@@ -50314,7 +50314,7 @@
         <v>1075</v>
       </c>
       <c r="D363" s="1">
-        <v>14409256897.04699</v>
+        <v>14409256961.86875</v>
       </c>
       <c r="E363" s="1">
         <v>1725958.230340958</v>
@@ -50362,7 +50362,7 @@
         <v>1077</v>
       </c>
       <c r="D365" s="1">
-        <v>8348.554816532545</v>
+        <v>8348.554854089514</v>
       </c>
       <c r="E365" s="1">
         <v>1725958.230340958</v>
@@ -50410,7 +50410,7 @@
         <v>1075</v>
       </c>
       <c r="D367" s="1">
-        <v>3064062346.871385</v>
+        <v>3064062434.648334</v>
       </c>
       <c r="E367" s="1">
         <v>1725958.230340958</v>
@@ -50458,7 +50458,7 @@
         <v>1077</v>
       </c>
       <c r="D369" s="1">
-        <v>1775.281865463273</v>
+        <v>1775.28191632021</v>
       </c>
       <c r="E369" s="1">
         <v>1725958.230340958</v>
@@ -50506,7 +50506,7 @@
         <v>1075</v>
       </c>
       <c r="D371" s="1">
-        <v>17473319281.30953</v>
+        <v>17473319396.51708</v>
       </c>
       <c r="E371" s="1">
         <v>1725958.230340958</v>
@@ -50554,7 +50554,7 @@
         <v>1077</v>
       </c>
       <c r="D373" s="1">
-        <v>10123.83670365982</v>
+        <v>10123.83677040972</v>
       </c>
       <c r="E373" s="1">
         <v>1725958.230340958</v>
@@ -50602,7 +50602,7 @@
         <v>1075</v>
       </c>
       <c r="D375" s="1">
-        <v>36954228064.06647</v>
+        <v>36954227969.53468</v>
       </c>
       <c r="E375" s="1">
         <v>1725958.230340958</v>
@@ -50650,7 +50650,7 @@
         <v>1077</v>
       </c>
       <c r="D377" s="1">
-        <v>21410.84726990541</v>
+        <v>21410.8472151348</v>
       </c>
       <c r="E377" s="1">
         <v>1725958.230340958</v>
@@ -50698,7 +50698,7 @@
         <v>1075</v>
       </c>
       <c r="D379" s="1">
-        <v>307941239.2522069</v>
+        <v>307941234.4549395</v>
       </c>
       <c r="E379" s="1">
         <v>1725958.230340958</v>
@@ -50746,7 +50746,7 @@
         <v>1077</v>
       </c>
       <c r="D381" s="1">
-        <v>178.4175502273737</v>
+        <v>178.4175474478932</v>
       </c>
       <c r="E381" s="1">
         <v>1725958.230340958</v>
@@ -50794,7 +50794,7 @@
         <v>1075</v>
       </c>
       <c r="D383" s="1">
-        <v>3633883058.97835</v>
+        <v>3633883092.300908</v>
       </c>
       <c r="E383" s="1">
         <v>1725958.230340958</v>
@@ -50842,7 +50842,7 @@
         <v>1077</v>
       </c>
       <c r="D385" s="1">
-        <v>2105.429317522063</v>
+        <v>2105.429336828763</v>
       </c>
       <c r="E385" s="1">
         <v>1725958.230340958</v>
@@ -50890,7 +50890,7 @@
         <v>1075</v>
       </c>
       <c r="D387" s="1">
-        <v>14869729776.05304</v>
+        <v>14869729713.52585</v>
       </c>
       <c r="E387" s="1">
         <v>1721642.478590012</v>
@@ -50938,7 +50938,7 @@
         <v>1077</v>
       </c>
       <c r="D389" s="1">
-        <v>8636.944058345394</v>
+        <v>8636.944022027061</v>
       </c>
       <c r="E389" s="1">
         <v>1721642.478590012</v>
@@ -50986,7 +50986,7 @@
         <v>1075</v>
       </c>
       <c r="D391" s="1">
-        <v>45401620976.63676</v>
+        <v>45401621031.80331</v>
       </c>
       <c r="E391" s="1">
         <v>1721642.478590012</v>
@@ -51034,7 +51034,7 @@
         <v>1077</v>
       </c>
       <c r="D393" s="1">
-        <v>26371.10871812347</v>
+        <v>26371.10875016645</v>
       </c>
       <c r="E393" s="1">
         <v>1721642.478590012</v>
@@ -51082,7 +51082,7 @@
         <v>1075</v>
       </c>
       <c r="D395" s="1">
-        <v>5477523786.427842</v>
+        <v>5477523797.627</v>
       </c>
       <c r="E395" s="1">
         <v>1721642.478590012</v>
@@ -51130,7 +51130,7 @@
         <v>1077</v>
       </c>
       <c r="D397" s="1">
-        <v>3181.568679063854</v>
+        <v>3181.56868556878</v>
       </c>
       <c r="E397" s="1">
         <v>1721642.478590012</v>
@@ -51178,7 +51178,7 @@
         <v>1075</v>
       </c>
       <c r="D399" s="1">
-        <v>50879144654.26369</v>
+        <v>50879144829.43031</v>
       </c>
       <c r="E399" s="1">
         <v>1721642.478590012</v>
@@ -51226,7 +51226,7 @@
         <v>1077</v>
       </c>
       <c r="D401" s="1">
-        <v>29552.67733399133</v>
+        <v>29552.67743573523</v>
       </c>
       <c r="E401" s="1">
         <v>1721642.478590012</v>
@@ -51274,7 +51274,7 @@
         <v>1075</v>
       </c>
       <c r="D403" s="1">
-        <v>11778796875.64705</v>
+        <v>11778796792.55597</v>
       </c>
       <c r="E403" s="1">
         <v>1721642.478590012</v>
@@ -51322,7 +51322,7 @@
         <v>1077</v>
       </c>
       <c r="D405" s="1">
-        <v>6841.604469061212</v>
+        <v>6841.604420798534</v>
       </c>
       <c r="E405" s="1">
         <v>1721642.478590012</v>
@@ -51370,7 +51370,7 @@
         <v>1075</v>
       </c>
       <c r="D407" s="1">
-        <v>26648526602.66769</v>
+        <v>26648526506.08183</v>
       </c>
       <c r="E407" s="1">
         <v>1721642.478590012</v>
@@ -51418,7 +51418,7 @@
         <v>1077</v>
       </c>
       <c r="D409" s="1">
-        <v>15478.5484989266</v>
+        <v>15478.5484428256</v>
       </c>
       <c r="E409" s="1">
         <v>1721642.478590012</v>
@@ -51466,7 +51466,7 @@
         <v>1075</v>
       </c>
       <c r="D411" s="1">
-        <v>20297289681.23149</v>
+        <v>20297289774.1189</v>
       </c>
       <c r="E411" s="1">
         <v>1721642.478590012</v>
@@ -51514,7 +51514,7 @@
         <v>1077</v>
       </c>
       <c r="D413" s="1">
-        <v>11789.49168230011</v>
+        <v>11789.4917362529</v>
       </c>
       <c r="E413" s="1">
         <v>1721642.478590012</v>
@@ -51562,7 +51562,7 @@
         <v>1075</v>
       </c>
       <c r="D415" s="1">
-        <v>3933328430.808406</v>
+        <v>3933328549.229588</v>
       </c>
       <c r="E415" s="1">
         <v>1721642.478590012</v>
@@ -51610,7 +51610,7 @@
         <v>1077</v>
       </c>
       <c r="D417" s="1">
-        <v>2284.637187872896</v>
+        <v>2284.637256656737</v>
       </c>
       <c r="E417" s="1">
         <v>1721642.478590012</v>
@@ -51658,7 +51658,7 @@
         <v>1075</v>
       </c>
       <c r="D419" s="1">
-        <v>24230618147.31206</v>
+        <v>24230618323.34849</v>
       </c>
       <c r="E419" s="1">
         <v>1721642.478590012</v>
@@ -51706,7 +51706,7 @@
         <v>1077</v>
       </c>
       <c r="D421" s="1">
-        <v>14074.12889066052</v>
+        <v>14074.12899290963</v>
       </c>
       <c r="E421" s="1">
         <v>1721642.478590012</v>
@@ -51754,7 +51754,7 @@
         <v>1075</v>
       </c>
       <c r="D423" s="1">
-        <v>52530605161.97753</v>
+        <v>52530605376.93568</v>
       </c>
       <c r="E423" s="1">
         <v>1721642.478590012</v>
@@ -51802,7 +51802,7 @@
         <v>1077</v>
       </c>
       <c r="D425" s="1">
-        <v>30511.91278981393</v>
+        <v>30511.91291467037</v>
       </c>
       <c r="E425" s="1">
         <v>1721642.478590012</v>
@@ -51850,7 +51850,7 @@
         <v>1075</v>
       </c>
       <c r="D427" s="1">
-        <v>488541875.191576</v>
+        <v>488541869.7197261</v>
       </c>
       <c r="E427" s="1">
         <v>1721642.478590012</v>
@@ -51898,7 +51898,7 @@
         <v>1077</v>
       </c>
       <c r="D429" s="1">
-        <v>283.7649984052911</v>
+        <v>283.764995227018</v>
       </c>
       <c r="E429" s="1">
         <v>1721642.478590012</v>
@@ -51946,7 +51946,7 @@
         <v>1075</v>
       </c>
       <c r="D431" s="1">
-        <v>4988981896.308421</v>
+        <v>4988981927.907274</v>
       </c>
       <c r="E431" s="1">
         <v>1721642.478590012</v>
@@ -51994,7 +51994,7 @@
         <v>1077</v>
       </c>
       <c r="D433" s="1">
-        <v>2897.803671987863</v>
+        <v>2897.803690341762</v>
       </c>
       <c r="E433" s="1">
         <v>1721642.478590012</v>
@@ -52042,7 +52042,7 @@
         <v>1075</v>
       </c>
       <c r="D435" s="1">
-        <v>33138245358.67105</v>
+        <v>33138244862.65318</v>
       </c>
       <c r="E435" s="1">
         <v>1732307.516914368</v>
@@ -52090,7 +52090,7 @@
         <v>1077</v>
       </c>
       <c r="D437" s="1">
-        <v>19129.53966608525</v>
+        <v>19129.53937975164</v>
       </c>
       <c r="E437" s="1">
         <v>1732307.516914368</v>
@@ -52138,7 +52138,7 @@
         <v>1075</v>
       </c>
       <c r="D439" s="1">
-        <v>90281223987.0153</v>
+        <v>90281223248.28671</v>
       </c>
       <c r="E439" s="1">
         <v>1732307.516914368</v>
@@ -52186,7 +52186,7 @@
         <v>1077</v>
       </c>
       <c r="D441" s="1">
-        <v>52116.16477184526</v>
+        <v>52116.16434540331</v>
       </c>
       <c r="E441" s="1">
         <v>1732307.516914368</v>
@@ -52234,7 +52234,7 @@
         <v>1075</v>
       </c>
       <c r="D443" s="1">
-        <v>15902423025.17834</v>
+        <v>15902423172.4029</v>
       </c>
       <c r="E443" s="1">
         <v>1732307.516914368</v>
@@ -52282,7 +52282,7 @@
         <v>1077</v>
       </c>
       <c r="D445" s="1">
-        <v>9179.907649136201</v>
+        <v>9179.907734123743</v>
       </c>
       <c r="E445" s="1">
         <v>1732307.516914368</v>
@@ -52330,7 +52330,7 @@
         <v>1075</v>
       </c>
       <c r="D447" s="1">
-        <v>106183646773.6161</v>
+        <v>106183646420.6896</v>
       </c>
       <c r="E447" s="1">
         <v>1732307.516914368</v>
@@ -52378,7 +52378,7 @@
         <v>1077</v>
       </c>
       <c r="D449" s="1">
-        <v>61296.07228325908</v>
+        <v>61296.07207952705</v>
       </c>
       <c r="E449" s="1">
         <v>1732307.516914368</v>
@@ -52426,7 +52426,7 @@
         <v>1075</v>
       </c>
       <c r="D451" s="1">
-        <v>23695623613.51806</v>
+        <v>23695623489.37558</v>
       </c>
       <c r="E451" s="1">
         <v>1732307.516914368</v>
@@ -52474,7 +52474,7 @@
         <v>1077</v>
       </c>
       <c r="D453" s="1">
-        <v>13678.64734301063</v>
+        <v>13678.64727134756</v>
       </c>
       <c r="E453" s="1">
         <v>1732307.516914368</v>
@@ -52522,7 +52522,7 @@
         <v>1075</v>
       </c>
       <c r="D455" s="1">
-        <v>56833869441.74023</v>
+        <v>56833868352.02875</v>
       </c>
       <c r="E455" s="1">
         <v>1732307.516914368</v>
@@ -52570,7 +52570,7 @@
         <v>1077</v>
       </c>
       <c r="D457" s="1">
-        <v>32808.18728015118</v>
+        <v>32808.1866510992</v>
       </c>
       <c r="E457" s="1">
         <v>1732307.516914368</v>
@@ -52618,7 +52618,7 @@
         <v>1075</v>
       </c>
       <c r="D459" s="1">
-        <v>41678569557.48792</v>
+        <v>41678569897.40722</v>
       </c>
       <c r="E459" s="1">
         <v>1732307.516914368</v>
@@ -52666,7 +52666,7 @@
         <v>1077</v>
       </c>
       <c r="D461" s="1">
-        <v>24059.56745585616</v>
+        <v>24059.56765207958</v>
       </c>
       <c r="E461" s="1">
         <v>1732307.516914368</v>
@@ -52714,7 +52714,7 @@
         <v>1075</v>
       </c>
       <c r="D463" s="1">
-        <v>7671207958.585142</v>
+        <v>7671208171.253648</v>
       </c>
       <c r="E463" s="1">
         <v>1732307.516914368</v>
@@ -52762,7 +52762,7 @@
         <v>1077</v>
       </c>
       <c r="D465" s="1">
-        <v>4428.317653582259</v>
+        <v>4428.317776348283</v>
       </c>
       <c r="E465" s="1">
         <v>1732307.516914368</v>
@@ -52810,7 +52810,7 @@
         <v>1075</v>
       </c>
       <c r="D467" s="1">
-        <v>49349777475.3717</v>
+        <v>49349778068.66087</v>
       </c>
       <c r="E467" s="1">
         <v>1732307.516914368</v>
@@ -52858,7 +52858,7 @@
         <v>1077</v>
       </c>
       <c r="D469" s="1">
-        <v>28487.88508594297</v>
+        <v>28487.88542842786</v>
       </c>
       <c r="E469" s="1">
         <v>1732307.516914368</v>
@@ -52906,7 +52906,7 @@
         <v>1075</v>
       </c>
       <c r="D471" s="1">
-        <v>114503741305.47</v>
+        <v>114503741833.9084</v>
       </c>
       <c r="E471" s="1">
         <v>1732307.516914368</v>
@@ -52954,7 +52954,7 @@
         <v>1077</v>
       </c>
       <c r="D473" s="1">
-        <v>66098.96925773731</v>
+        <v>66098.96956278615</v>
       </c>
       <c r="E473" s="1">
         <v>1732307.516914368</v>
@@ -53002,7 +53002,7 @@
         <v>1075</v>
       </c>
       <c r="D475" s="1">
-        <v>3001738022.319016</v>
+        <v>3001738024.249067</v>
       </c>
       <c r="E475" s="1">
         <v>1732307.516914368</v>
@@ -53050,7 +53050,7 @@
         <v>1077</v>
       </c>
       <c r="D477" s="1">
-        <v>1732.797435218541</v>
+        <v>1732.797436332692</v>
       </c>
       <c r="E477" s="1">
         <v>1732307.516914368</v>
@@ -53098,7 +53098,7 @@
         <v>1075</v>
       </c>
       <c r="D479" s="1">
-        <v>12900684958.21474</v>
+        <v>12900685148.15383</v>
       </c>
       <c r="E479" s="1">
         <v>1732307.516914368</v>
@@ -53146,7 +53146,7 @@
         <v>1077</v>
       </c>
       <c r="D481" s="1">
-        <v>7447.110188145918</v>
+        <v>7447.11029779105</v>
       </c>
       <c r="E481" s="1">
         <v>1732307.516914368</v>
@@ -53170,7 +53170,7 @@
         <v>1072</v>
       </c>
       <c r="D482" s="1">
-        <v>0.01193737247365105</v>
+        <v>0.01193737241176179</v>
       </c>
       <c r="E482" s="1"/>
       <c r="F482" t="s">
@@ -53192,7 +53192,7 @@
         <v>1072</v>
       </c>
       <c r="D483" s="1">
-        <v>0.01309198437003432</v>
+        <v>0.01309198437642212</v>
       </c>
       <c r="E483" s="1"/>
       <c r="F483" t="s">
@@ -53214,7 +53214,7 @@
         <v>1072</v>
       </c>
       <c r="D484" s="1">
-        <v>0.001154611956029344</v>
+        <v>0.001154611964660328</v>
       </c>
       <c r="E484" s="1"/>
       <c r="F484" t="s">
@@ -53236,7 +53236,7 @@
         <v>1072</v>
       </c>
       <c r="D485" s="1">
-        <v>0.002826422784605064</v>
+        <v>0.002826422784451109</v>
       </c>
       <c r="E485" s="1"/>
       <c r="F485" t="s">
@@ -53258,7 +53258,7 @@
         <v>1072</v>
       </c>
       <c r="D486" s="1">
-        <v>0.001982435338945983</v>
+        <v>0.001982435402211655</v>
       </c>
       <c r="E486" s="1"/>
       <c r="F486" t="s">
@@ -53280,7 +53280,7 @@
         <v>1072</v>
       </c>
       <c r="D487" s="1">
-        <v>0.004808858124683768</v>
+        <v>0.004808858186662763</v>
       </c>
       <c r="E487" s="1"/>
       <c r="F487" t="s">
@@ -53302,7 +53302,7 @@
         <v>1072</v>
       </c>
       <c r="D488" s="1">
-        <v>0.002336862951507714</v>
+        <v>0.002336862911117196</v>
       </c>
       <c r="E488" s="1"/>
       <c r="F488" t="s">
@@ -53324,7 +53324,7 @@
         <v>1072</v>
       </c>
       <c r="D489" s="1">
-        <v>0.005946263304032746</v>
+        <v>0.00594626327864216</v>
       </c>
       <c r="E489" s="1"/>
       <c r="F489" t="s">
@@ -53346,7 +53346,7 @@
         <v>1072</v>
       </c>
       <c r="D490" s="1">
-        <v>0.008283126301119822</v>
+        <v>0.008283126189759358</v>
       </c>
       <c r="E490" s="1"/>
       <c r="F490" t="s">
@@ -53368,7 +53368,7 @@
         <v>1072</v>
       </c>
       <c r="D491" s="1">
-        <v>0.006864853621484387</v>
+        <v>0.006864853711230775</v>
       </c>
       <c r="E491" s="1"/>
       <c r="F491" t="s">
@@ -53390,7 +53390,7 @@
         <v>1072</v>
       </c>
       <c r="D492" s="1">
-        <v>-1.149028515130032e-05</v>
+        <v>-1.149028474233363e-05</v>
       </c>
       <c r="E492" s="1"/>
       <c r="F492" t="s">
@@ -53412,7 +53412,7 @@
         <v>1072</v>
       </c>
       <c r="D493" s="1">
-        <v>-0.001143121670878044</v>
+        <v>-0.001143121679917994</v>
       </c>
       <c r="E493" s="1"/>
       <c r="F493" t="s">
@@ -53434,7 +53434,7 @@
         <v>1072</v>
       </c>
       <c r="D494" s="1">
-        <v>0.01474577349227983</v>
+        <v>0.01474577342614763</v>
       </c>
       <c r="E494" s="1"/>
       <c r="F494" t="s">
@@ -53456,7 +53456,7 @@
         <v>1072</v>
       </c>
       <c r="D495" s="1">
-        <v>0.01640377910407833</v>
+        <v>0.01640377904827732</v>
       </c>
       <c r="E495" s="1"/>
       <c r="F495" t="s">
@@ -53478,7 +53478,7 @@
         <v>1072</v>
       </c>
       <c r="D496" s="1">
-        <v>0.001658005613103674</v>
+        <v>0.001658005622129684</v>
       </c>
       <c r="E496" s="1"/>
       <c r="F496" t="s">
@@ -53500,7 +53500,7 @@
         <v>1072</v>
       </c>
       <c r="D497" s="1">
-        <v>0.004112122785072675</v>
+        <v>0.00411212277301938</v>
       </c>
       <c r="E497" s="1"/>
       <c r="F497" t="s">
@@ -53522,7 +53522,7 @@
         <v>1072</v>
       </c>
       <c r="D498" s="1">
-        <v>0.002145254858727867</v>
+        <v>0.002145254926721941</v>
       </c>
       <c r="E498" s="1"/>
       <c r="F498" t="s">
@@ -53544,7 +53544,7 @@
         <v>1072</v>
       </c>
       <c r="D499" s="1">
-        <v>0.006257377643400241</v>
+        <v>0.006257377699741323</v>
       </c>
       <c r="E499" s="1"/>
       <c r="F499" t="s">
@@ -53566,7 +53566,7 @@
         <v>1072</v>
       </c>
       <c r="D500" s="1">
-        <v>0.003589873751931918</v>
+        <v>0.003589873747817299</v>
       </c>
       <c r="E500" s="1"/>
       <c r="F500" t="s">
@@ -53588,7 +53588,7 @@
         <v>1072</v>
       </c>
       <c r="D501" s="1">
-        <v>0.006556527628717971</v>
+        <v>0.006556527600718695</v>
       </c>
       <c r="E501" s="1"/>
       <c r="F501" t="s">
@@ -53610,7 +53610,7 @@
         <v>1072</v>
       </c>
       <c r="D502" s="1">
-        <v>0.01014640143717204</v>
+        <v>0.01014640134853599</v>
       </c>
       <c r="E502" s="1"/>
       <c r="F502" t="s">
@@ -53632,7 +53632,7 @@
         <v>1072</v>
       </c>
       <c r="D503" s="1">
-        <v>0.01029037662639174</v>
+        <v>0.01029037668303315</v>
       </c>
       <c r="E503" s="1"/>
       <c r="F503" t="s">
@@ -53654,7 +53654,7 @@
         <v>1072</v>
       </c>
       <c r="D504" s="1">
-        <v>-8.560018118834999e-05</v>
+        <v>-8.560017432806802e-05</v>
       </c>
       <c r="E504" s="1"/>
       <c r="F504" t="s">
@@ -53676,7 +53676,7 @@
         <v>1072</v>
       </c>
       <c r="D505" s="1">
-        <v>-0.001572405430286535</v>
+        <v>-0.001572405447801616</v>
       </c>
       <c r="E505" s="1"/>
       <c r="F505" t="s">
@@ -53698,7 +53698,7 @@
         <v>1072</v>
       </c>
       <c r="D506" s="1">
-        <v>0.01619319434067891</v>
+        <v>0.01619319430464201</v>
       </c>
       <c r="E506" s="1"/>
       <c r="F506" t="s">
@@ -53720,7 +53720,7 @@
         <v>1072</v>
       </c>
       <c r="D507" s="1">
-        <v>0.01764196012298325</v>
+        <v>0.01764196010858299</v>
       </c>
       <c r="E507" s="1"/>
       <c r="F507" t="s">
@@ -53742,7 +53742,7 @@
         <v>1072</v>
       </c>
       <c r="D508" s="1">
-        <v>0.001448765814662251</v>
+        <v>0.001448765803940978</v>
       </c>
       <c r="E508" s="1"/>
       <c r="F508" t="s">
@@ -53764,7 +53764,7 @@
         <v>1072</v>
       </c>
       <c r="D509" s="1">
-        <v>0.005372378132447791</v>
+        <v>0.005372378097476323</v>
       </c>
       <c r="E509" s="1"/>
       <c r="F509" t="s">
@@ -53786,7 +53786,7 @@
         <v>1072</v>
       </c>
       <c r="D510" s="1">
-        <v>0.002149028856180044</v>
+        <v>0.002149028924431503</v>
       </c>
       <c r="E510" s="1"/>
       <c r="F510" t="s">
@@ -53808,7 +53808,7 @@
         <v>1072</v>
       </c>
       <c r="D511" s="1">
-        <v>0.007521406953178943</v>
+        <v>0.007521407021907824</v>
       </c>
       <c r="E511" s="1"/>
       <c r="F511" t="s">
@@ -53830,7 +53830,7 @@
         <v>1072</v>
       </c>
       <c r="D512" s="1">
-        <v>0.003548013334753264</v>
+        <v>0.003548013374658207</v>
       </c>
       <c r="E512" s="1"/>
       <c r="F512" t="s">
@@ -53852,7 +53852,7 @@
         <v>1072</v>
       </c>
       <c r="D513" s="1">
-        <v>0.006572539755609045</v>
+        <v>0.006572539712016959</v>
       </c>
       <c r="E513" s="1"/>
       <c r="F513" t="s">
@@ -53874,7 +53874,7 @@
         <v>1072</v>
       </c>
       <c r="D514" s="1">
-        <v>0.01012055316585793</v>
+        <v>0.01012055308667516</v>
       </c>
       <c r="E514" s="1"/>
       <c r="F514" t="s">
@@ -53896,7 +53896,7 @@
         <v>1072</v>
       </c>
       <c r="D515" s="1">
-        <v>0.01356483406933169</v>
+        <v>0.01356483407561823</v>
       </c>
       <c r="E515" s="1"/>
       <c r="F515" t="s">
@@ -53918,7 +53918,7 @@
         <v>1072</v>
       </c>
       <c r="D516" s="1">
-        <v>-0.0001113099244008417</v>
+        <v>-0.0001113099284659118</v>
       </c>
       <c r="E516" s="1"/>
       <c r="F516" t="s">
@@ -53940,7 +53940,7 @@
         <v>1072</v>
       </c>
       <c r="D517" s="1">
-        <v>-0.001337455882997527</v>
+        <v>-0.001337455875475067</v>
       </c>
       <c r="E517" s="1"/>
       <c r="F517" t="s">
@@ -53962,7 +53962,7 @@
         <v>1072</v>
       </c>
       <c r="D518" s="1">
-        <v>0.01857862977333354</v>
+        <v>0.01857862996238224</v>
       </c>
       <c r="E518" s="1"/>
       <c r="F518" t="s">
@@ -53984,7 +53984,7 @@
         <v>1072</v>
       </c>
       <c r="D519" s="1">
-        <v>0.02011268978393849</v>
+        <v>0.02011268987431121</v>
       </c>
       <c r="E519" s="1"/>
       <c r="F519" t="s">
@@ -54006,7 +54006,7 @@
         <v>1072</v>
       </c>
       <c r="D520" s="1">
-        <v>0.001534059908993392</v>
+        <v>0.001534059911928976</v>
       </c>
       <c r="E520" s="1"/>
       <c r="F520" t="s">
@@ -54028,7 +54028,7 @@
         <v>1072</v>
       </c>
       <c r="D521" s="1">
-        <v>0.006823525225959325</v>
+        <v>0.006823525287736209</v>
       </c>
       <c r="E521" s="1"/>
       <c r="F521" t="s">
@@ -54050,7 +54050,7 @@
         <v>1072</v>
       </c>
       <c r="D522" s="1">
-        <v>0.002208630524637133</v>
+        <v>0.002208630598086643</v>
       </c>
       <c r="E522" s="1"/>
       <c r="F522" t="s">
@@ -54072,7 +54072,7 @@
         <v>1072</v>
       </c>
       <c r="D523" s="1">
-        <v>0.009032155773627032</v>
+        <v>0.009032155885822853</v>
       </c>
       <c r="E523" s="1"/>
       <c r="F523" t="s">
@@ -54094,7 +54094,7 @@
         <v>1072</v>
       </c>
       <c r="D524" s="1">
-        <v>0.004088543183655264</v>
+        <v>0.004088543174295323</v>
       </c>
       <c r="E524" s="1"/>
       <c r="F524" t="s">
@@ -54116,7 +54116,7 @@
         <v>1072</v>
       </c>
       <c r="D525" s="1">
-        <v>0.006991990858149506</v>
+        <v>0.006991990814193034</v>
       </c>
       <c r="E525" s="1"/>
       <c r="F525" t="s">
@@ -54138,7 +54138,7 @@
         <v>1072</v>
       </c>
       <c r="D526" s="1">
-        <v>0.01108053401871902</v>
+        <v>0.01108053398848836</v>
       </c>
       <c r="E526" s="1"/>
       <c r="F526" t="s">
@@ -54160,7 +54160,7 @@
         <v>1072</v>
       </c>
       <c r="D527" s="1">
-        <v>0.01699810192187666</v>
+        <v>0.01699810197932478</v>
       </c>
       <c r="E527" s="1"/>
       <c r="F527" t="s">
@@ -54182,7 +54182,7 @@
         <v>1072</v>
       </c>
       <c r="D528" s="1">
-        <v>-5.712870692634427e-05</v>
+        <v>-5.712870837093933e-05</v>
       </c>
       <c r="E528" s="1"/>
       <c r="F528" t="s">
@@ -54204,7 +54204,7 @@
         <v>1072</v>
       </c>
       <c r="D529" s="1">
-        <v>-0.001476931201748713</v>
+        <v>-0.001476931203558036</v>
       </c>
       <c r="E529" s="1"/>
       <c r="F529" t="s">
@@ -54226,7 +54226,7 @@
         <v>1072</v>
       </c>
       <c r="D530" s="1">
-        <v>0.01980995433828089</v>
+        <v>0.01980995416842955</v>
       </c>
       <c r="E530" s="1"/>
       <c r="F530" t="s">
@@ -54248,7 +54248,7 @@
         <v>1072</v>
       </c>
       <c r="D531" s="1">
-        <v>0.02165301418159156</v>
+        <v>0.02165301389646433</v>
       </c>
       <c r="E531" s="1"/>
       <c r="F531" t="s">
@@ -54270,7 +54270,7 @@
         <v>1072</v>
       </c>
       <c r="D532" s="1">
-        <v>0.001843059718047348</v>
+        <v>0.00184305972803478</v>
       </c>
       <c r="E532" s="1"/>
       <c r="F532" t="s">
@@ -54292,7 +54292,7 @@
         <v>1072</v>
       </c>
       <c r="D533" s="1">
-        <v>0.007128883489854553</v>
+        <v>0.007128883500454107</v>
       </c>
       <c r="E533" s="1"/>
       <c r="F533" t="s">
@@ -54314,7 +54314,7 @@
         <v>1072</v>
       </c>
       <c r="D534" s="1">
-        <v>0.002308198500442305</v>
+        <v>0.002308198576601992</v>
       </c>
       <c r="E534" s="1"/>
       <c r="F534" t="s">
@@ -54336,7 +54336,7 @@
         <v>1072</v>
       </c>
       <c r="D535" s="1">
-        <v>0.009437082054751507</v>
+        <v>0.009437082077056099</v>
       </c>
       <c r="E535" s="1"/>
       <c r="F535" t="s">
@@ -54358,7 +54358,7 @@
         <v>1072</v>
       </c>
       <c r="D536" s="1">
-        <v>0.005099953245996889</v>
+        <v>0.005099953203082117</v>
       </c>
       <c r="E536" s="1"/>
       <c r="F536" t="s">
@@ -54380,7 +54380,7 @@
         <v>1072</v>
       </c>
       <c r="D537" s="1">
-        <v>0.007115978663432359</v>
+        <v>0.00711597861632611</v>
       </c>
       <c r="E537" s="1"/>
       <c r="F537" t="s">
@@ -54402,7 +54402,7 @@
         <v>1072</v>
       </c>
       <c r="D538" s="1">
-        <v>0.01221593198454879</v>
+        <v>0.01221593181940823</v>
       </c>
       <c r="E538" s="1"/>
       <c r="F538" t="s">
@@ -54424,7 +54424,7 @@
         <v>1072</v>
       </c>
       <c r="D539" s="1">
-        <v>0.01756690906738093</v>
+        <v>0.01756690909363961</v>
       </c>
       <c r="E539" s="1"/>
       <c r="F539" t="s">
@@ -54446,7 +54446,7 @@
         <v>1072</v>
       </c>
       <c r="D540" s="1">
-        <v>-4.243806980199034e-05</v>
+        <v>-4.243807020737599e-05</v>
       </c>
       <c r="E540" s="1"/>
       <c r="F540" t="s">
@@ -54468,7 +54468,7 @@
         <v>1072</v>
       </c>
       <c r="D541" s="1">
-        <v>-0.001800621648741478</v>
+        <v>-0.001800621657827404</v>
       </c>
       <c r="E541" s="1"/>
       <c r="F541" t="s">
@@ -54490,7 +54490,7 @@
         <v>1072</v>
       </c>
       <c r="D542" s="1">
-        <v>0.02239344379552318</v>
+        <v>0.02239344375877587</v>
       </c>
       <c r="E542" s="1"/>
       <c r="F542" t="s">
@@ -54512,7 +54512,7 @@
         <v>1072</v>
       </c>
       <c r="D543" s="1">
-        <v>0.02467036250113097</v>
+        <v>0.0246703624402739</v>
       </c>
       <c r="E543" s="1"/>
       <c r="F543" t="s">
@@ -54534,7 +54534,7 @@
         <v>1072</v>
       </c>
       <c r="D544" s="1">
-        <v>0.002276918665366474</v>
+        <v>0.002276918681498031</v>
       </c>
       <c r="E544" s="1"/>
       <c r="F544" t="s">
@@ -54556,7 +54556,7 @@
         <v>1072</v>
       </c>
       <c r="D545" s="1">
-        <v>0.009189426599990069</v>
+        <v>0.00918942661242573</v>
       </c>
       <c r="E545" s="1"/>
       <c r="F545" t="s">
@@ -54578,7 +54578,7 @@
         <v>1072</v>
       </c>
       <c r="D546" s="1">
-        <v>0.002300268733345794</v>
+        <v>0.002300268811795744</v>
       </c>
       <c r="E546" s="1"/>
       <c r="F546" t="s">
@@ -54600,7 +54600,7 @@
         <v>1072</v>
       </c>
       <c r="D547" s="1">
-        <v>0.01148969531425029</v>
+        <v>0.01148969542422147</v>
       </c>
       <c r="E547" s="1"/>
       <c r="F547" t="s">
@@ -54622,7 +54622,7 @@
         <v>1072</v>
       </c>
       <c r="D548" s="1">
-        <v>0.006072321664197268</v>
+        <v>0.006072321578708321</v>
       </c>
       <c r="E548" s="1"/>
       <c r="F548" t="s">
@@ -54644,7 +54644,7 @@
         <v>1072</v>
       </c>
       <c r="D549" s="1">
-        <v>0.007108345469528573</v>
+        <v>0.007108345437344104</v>
       </c>
       <c r="E549" s="1"/>
       <c r="F549" t="s">
@@ -54666,7 +54666,7 @@
         <v>1072</v>
       </c>
       <c r="D550" s="1">
-        <v>0.01318066715234763</v>
+        <v>0.01318066701605243</v>
       </c>
       <c r="E550" s="1"/>
       <c r="F550" t="s">
@@ -54688,7 +54688,7 @@
         <v>1072</v>
       </c>
       <c r="D551" s="1">
-        <v>0.02327675089466677</v>
+        <v>0.02327675087240247</v>
       </c>
       <c r="E551" s="1"/>
       <c r="F551" t="s">
@@ -54710,7 +54710,7 @@
         <v>1072</v>
       </c>
       <c r="D552" s="1">
-        <v>-0.0001776476115373789</v>
+        <v>-0.0001776476108679929</v>
       </c>
       <c r="E552" s="1"/>
       <c r="F552" t="s">
@@ -54732,7 +54732,7 @@
         <v>1072</v>
       </c>
       <c r="D553" s="1">
-        <v>-0.002099271049837468</v>
+        <v>-0.002099271070630038</v>
       </c>
       <c r="E553" s="1"/>
       <c r="F553" t="s">
@@ -54754,7 +54754,7 @@
         <v>1072</v>
       </c>
       <c r="D554" s="1">
-        <v>0.02472849708693234</v>
+        <v>0.02472849711102729</v>
       </c>
       <c r="E554" s="1"/>
       <c r="F554" t="s">
@@ -54776,7 +54776,7 @@
         <v>1072</v>
       </c>
       <c r="D555" s="1">
-        <v>0.02714709936261446</v>
+        <v>0.02714709941126519</v>
       </c>
       <c r="E555" s="1"/>
       <c r="F555" t="s">
@@ -54798,7 +54798,7 @@
         <v>1072</v>
       </c>
       <c r="D556" s="1">
-        <v>0.002418602287209443</v>
+        <v>0.0024186023002379</v>
       </c>
       <c r="E556" s="1"/>
       <c r="F556" t="s">
@@ -54820,7 +54820,7 @@
         <v>1072</v>
       </c>
       <c r="D557" s="1">
-        <v>0.01072813870313529</v>
+        <v>0.01072813880772393</v>
       </c>
       <c r="E557" s="1"/>
       <c r="F557" t="s">
@@ -54842,7 +54842,7 @@
         <v>1072</v>
       </c>
       <c r="D558" s="1">
-        <v>0.00234647930300408</v>
+        <v>0.002346479372565541</v>
       </c>
       <c r="E558" s="1"/>
       <c r="F558" t="s">
@@ -54864,7 +54864,7 @@
         <v>1072</v>
       </c>
       <c r="D559" s="1">
-        <v>0.01307461808578079</v>
+        <v>0.01307461818028947</v>
       </c>
       <c r="E559" s="1"/>
       <c r="F559" t="s">
@@ -54886,7 +54886,7 @@
         <v>1072</v>
       </c>
       <c r="D560" s="1">
-        <v>0.006814970268158975</v>
+        <v>0.00681497021495207</v>
       </c>
       <c r="E560" s="1"/>
       <c r="F560" t="s">
@@ -54908,7 +54908,7 @@
         <v>1072</v>
       </c>
       <c r="D561" s="1">
-        <v>0.007257511074410718</v>
+        <v>0.007257511016023649</v>
       </c>
       <c r="E561" s="1"/>
       <c r="F561" t="s">
@@ -54930,7 +54930,7 @@
         <v>1072</v>
       </c>
       <c r="D562" s="1">
-        <v>0.01407248135839137</v>
+        <v>0.01407248123097572</v>
       </c>
       <c r="E562" s="1"/>
       <c r="F562" t="s">
@@ -54952,7 +54952,7 @@
         <v>1072</v>
       </c>
       <c r="D563" s="1">
-        <v>0.0269679346468018</v>
+        <v>0.02696793458825862</v>
       </c>
       <c r="E563" s="1"/>
       <c r="F563" t="s">
@@ -54974,7 +54974,7 @@
         <v>1072</v>
       </c>
       <c r="D564" s="1">
-        <v>-0.0002050503037102837</v>
+        <v>-0.0002050502972987999</v>
       </c>
       <c r="E564" s="1"/>
       <c r="F564" t="s">
@@ -54996,7 +54996,7 @@
         <v>1072</v>
       </c>
       <c r="D565" s="1">
-        <v>-0.002213551985054117</v>
+        <v>-0.0022135520029391</v>
       </c>
       <c r="E565" s="1"/>
       <c r="F565" t="s">
@@ -55018,7 +55018,7 @@
         <v>1072</v>
       </c>
       <c r="D566" s="1">
-        <v>0.02678984780716841</v>
+        <v>0.02678984784228099</v>
       </c>
       <c r="E566" s="1"/>
       <c r="F566" t="s">
@@ -55040,7 +55040,7 @@
         <v>1072</v>
       </c>
       <c r="D567" s="1">
-        <v>0.029967582648781</v>
+        <v>0.02996758291696192</v>
       </c>
       <c r="E567" s="1"/>
       <c r="F567" t="s">
@@ -55062,7 +55062,7 @@
         <v>1072</v>
       </c>
       <c r="D568" s="1">
-        <v>0.003177735064760045</v>
+        <v>0.003177735074680928</v>
       </c>
       <c r="E568" s="1"/>
       <c r="F568" t="s">
@@ -55084,7 +55084,7 @@
         <v>1072</v>
       </c>
       <c r="D569" s="1">
-        <v>0.01154802644782064</v>
+        <v>0.01154802648666664</v>
       </c>
       <c r="E569" s="1"/>
       <c r="F569" t="s">
@@ -55106,7 +55106,7 @@
         <v>1072</v>
       </c>
       <c r="D570" s="1">
-        <v>0.002449910722753064</v>
+        <v>0.002449910798661721</v>
       </c>
       <c r="E570" s="1"/>
       <c r="F570" t="s">
@@ -55128,7 +55128,7 @@
         <v>1072</v>
       </c>
       <c r="D571" s="1">
-        <v>0.01399793715295911</v>
+        <v>0.01399793728532836</v>
       </c>
       <c r="E571" s="1"/>
       <c r="F571" t="s">
@@ -55150,7 +55150,7 @@
         <v>1072</v>
       </c>
       <c r="D572" s="1">
-        <v>0.008646566579521476</v>
+        <v>0.008646566500054959</v>
       </c>
       <c r="E572" s="1"/>
       <c r="F572" t="s">
@@ -55172,7 +55172,7 @@
         <v>1072</v>
       </c>
       <c r="D573" s="1">
-        <v>0.007323079202298514</v>
+        <v>0.007323079131578597</v>
       </c>
       <c r="E573" s="1"/>
       <c r="F573" t="s">
@@ -55194,7 +55194,7 @@
         <v>1072</v>
       </c>
       <c r="D574" s="1">
-        <v>0.01596964579895569</v>
+        <v>0.01596964563163356</v>
       </c>
       <c r="E574" s="1"/>
       <c r="F574" t="s">
@@ -55216,7 +55216,7 @@
         <v>1072</v>
       </c>
       <c r="D575" s="1">
-        <v>0.02962586965867409</v>
+        <v>0.02962586961016934</v>
       </c>
       <c r="E575" s="1"/>
       <c r="F575" t="s">
@@ -55238,7 +55238,7 @@
         <v>1072</v>
       </c>
       <c r="D576" s="1">
-        <v>-0.000249430652019909</v>
+        <v>-0.0002494306463349196</v>
       </c>
       <c r="E576" s="1"/>
       <c r="F576" t="s">
@@ -55260,7 +55260,7 @@
         <v>1072</v>
       </c>
       <c r="D577" s="1">
-        <v>-0.002928304408944398</v>
+        <v>-0.002928304428346008</v>
       </c>
       <c r="E577" s="1"/>
       <c r="F577" t="s">
@@ -55282,7 +55282,7 @@
         <v>1072</v>
       </c>
       <c r="D578" s="1">
-        <v>0.02796828132729655</v>
+        <v>0.02796828136914292</v>
       </c>
       <c r="E578" s="1"/>
       <c r="F578" t="s">
@@ -55304,7 +55304,7 @@
         <v>1072</v>
       </c>
       <c r="D579" s="1">
-        <v>0.03134825091956873</v>
+        <v>0.03134825103488226</v>
       </c>
       <c r="E579" s="1"/>
       <c r="F579" t="s">
@@ -55326,7 +55326,7 @@
         <v>1072</v>
       </c>
       <c r="D580" s="1">
-        <v>0.003379969661255401</v>
+        <v>0.003379969665739336</v>
       </c>
       <c r="E580" s="1"/>
       <c r="F580" t="s">
@@ -55348,7 +55348,7 @@
         <v>1072</v>
       </c>
       <c r="D581" s="1">
-        <v>0.01249300151263229</v>
+        <v>0.01249300155077213</v>
       </c>
       <c r="E581" s="1"/>
       <c r="F581" t="s">
@@ -55370,7 +55370,7 @@
         <v>1072</v>
       </c>
       <c r="D582" s="1">
-        <v>0.00242534460554951</v>
+        <v>0.00242534468133039</v>
       </c>
       <c r="E582" s="1"/>
       <c r="F582" t="s">
@@ -55392,7 +55392,7 @@
         <v>1072</v>
       </c>
       <c r="D583" s="1">
-        <v>0.01491834612563162</v>
+        <v>0.01491834623210252</v>
       </c>
       <c r="E583" s="1"/>
       <c r="F583" t="s">
@@ -55414,7 +55414,7 @@
         <v>1072</v>
       </c>
       <c r="D584" s="1">
-        <v>0.009167433401294915</v>
+        <v>0.009167433362759313</v>
       </c>
       <c r="E584" s="1"/>
       <c r="F584" t="s">
@@ -55436,7 +55436,7 @@
         <v>1072</v>
       </c>
       <c r="D585" s="1">
-        <v>0.007262471489892639</v>
+        <v>0.007262471440020424</v>
       </c>
       <c r="E585" s="1"/>
       <c r="F585" t="s">
@@ -55458,7 +55458,7 @@
         <v>1072</v>
       </c>
       <c r="D586" s="1">
-        <v>0.0164299048367813</v>
+        <v>0.01642990480277974</v>
       </c>
       <c r="E586" s="1"/>
       <c r="F586" t="s">
@@ -55480,7 +55480,7 @@
         <v>1072</v>
       </c>
       <c r="D587" s="1">
-        <v>0.03232345073322953</v>
+        <v>0.03232345087273381</v>
       </c>
       <c r="E587" s="1"/>
       <c r="F587" t="s">
@@ -55502,7 +55502,7 @@
         <v>1072</v>
       </c>
       <c r="D588" s="1">
-        <v>-0.0003003990677309101</v>
+        <v>-0.0003003990651479929</v>
       </c>
       <c r="E588" s="1"/>
       <c r="F588" t="s">
@@ -55524,7 +55524,7 @@
         <v>1072</v>
       </c>
       <c r="D589" s="1">
-        <v>-0.003079570584195079</v>
+        <v>-0.003079570600591343</v>
       </c>
       <c r="E589" s="1"/>
       <c r="F589" t="s">
@@ -55546,7 +55546,7 @@
         <v>1072</v>
       </c>
       <c r="D590" s="1">
-        <v>0.02820828429909506</v>
+        <v>0.02820828402110997</v>
       </c>
       <c r="E590" s="1"/>
       <c r="F590" t="s">
@@ -55568,7 +55568,7 @@
         <v>1072</v>
       </c>
       <c r="D591" s="1">
-        <v>0.03261756486517131</v>
+        <v>0.03261756468747955</v>
       </c>
       <c r="E591" s="1"/>
       <c r="F591" t="s">
@@ -55590,7 +55590,7 @@
         <v>1072</v>
       </c>
       <c r="D592" s="1">
-        <v>0.004409280623471114</v>
+        <v>0.004409280666369582</v>
       </c>
       <c r="E592" s="1"/>
       <c r="F592" t="s">
@@ -55612,7 +55612,7 @@
         <v>1072</v>
       </c>
       <c r="D593" s="1">
-        <v>0.0125436486765868</v>
+        <v>0.01254364877776372</v>
       </c>
       <c r="E593" s="1"/>
       <c r="F593" t="s">
@@ -55634,7 +55634,7 @@
         <v>1072</v>
       </c>
       <c r="D594" s="1">
-        <v>0.002437942405815008</v>
+        <v>0.002437942475722646</v>
       </c>
       <c r="E594" s="1"/>
       <c r="F594" t="s">
@@ -55656,7 +55656,7 @@
         <v>1072</v>
       </c>
       <c r="D595" s="1">
-        <v>0.0149815910871525</v>
+        <v>0.01498159125348637</v>
       </c>
       <c r="E595" s="1"/>
       <c r="F595" t="s">
@@ -55678,7 +55678,7 @@
         <v>1072</v>
       </c>
       <c r="D596" s="1">
-        <v>0.01005070342024522</v>
+        <v>0.01005070325107919</v>
       </c>
       <c r="E596" s="1"/>
       <c r="F596" t="s">
@@ -55700,7 +55700,7 @@
         <v>1072</v>
       </c>
       <c r="D597" s="1">
-        <v>0.007585270236475767</v>
+        <v>0.007585270182913988</v>
       </c>
       <c r="E597" s="1"/>
       <c r="F597" t="s">
@@ -55722,7 +55722,7 @@
         <v>1072</v>
       </c>
       <c r="D598" s="1">
-        <v>0.01763597378096526</v>
+        <v>0.01763597343399318</v>
       </c>
       <c r="E598" s="1"/>
       <c r="F598" t="s">
@@ -55744,7 +55744,7 @@
         <v>1072</v>
       </c>
       <c r="D599" s="1">
-        <v>0.03377289174955603</v>
+        <v>0.03377289190427531</v>
       </c>
       <c r="E599" s="1"/>
       <c r="F599" t="s">
@@ -55766,7 +55766,7 @@
         <v>1072</v>
       </c>
       <c r="D600" s="1">
-        <v>-0.0006491025617548791</v>
+        <v>-0.0006491025634837304</v>
       </c>
       <c r="E600" s="1"/>
       <c r="F600" t="s">
@@ -55788,7 +55788,7 @@
         <v>1072</v>
       </c>
       <c r="D601" s="1">
-        <v>-0.003760178044334081</v>
+        <v>-0.003760178102885851</v>
       </c>
       <c r="E601" s="1"/>
       <c r="F601" t="s">
@@ -55810,7 +55810,7 @@
         <v>1073</v>
       </c>
       <c r="D602" s="1">
-        <v>0.01193737247365105</v>
+        <v>0.01193737241176179</v>
       </c>
       <c r="E602" s="1"/>
       <c r="F602" t="s">
@@ -55832,7 +55832,7 @@
         <v>1073</v>
       </c>
       <c r="D603" s="1">
-        <v>0.01309198437003432</v>
+        <v>0.01309198437642212</v>
       </c>
       <c r="E603" s="1"/>
       <c r="F603" t="s">
@@ -55854,7 +55854,7 @@
         <v>1073</v>
       </c>
       <c r="D604" s="1">
-        <v>0.008247125168570223</v>
+        <v>0.008247125230219334</v>
       </c>
       <c r="E604" s="1"/>
       <c r="F604" t="s">
@@ -55876,7 +55876,7 @@
         <v>1073</v>
       </c>
       <c r="D605" s="1">
-        <v>0.01703853197442496</v>
+        <v>0.01703853197349688</v>
       </c>
       <c r="E605" s="1"/>
       <c r="F605" t="s">
@@ -55898,7 +55898,7 @@
         <v>1073</v>
       </c>
       <c r="D606" s="1">
-        <v>0.001982435338945983</v>
+        <v>0.001982435402211655</v>
       </c>
       <c r="E606" s="1"/>
       <c r="F606" t="s">
@@ -55920,7 +55920,7 @@
         <v>1073</v>
       </c>
       <c r="D607" s="1">
-        <v>0.004808858124683768</v>
+        <v>0.004808858186662763</v>
       </c>
       <c r="E607" s="1"/>
       <c r="F607" t="s">
@@ -55942,7 +55942,7 @@
         <v>1073</v>
       </c>
       <c r="D608" s="1">
-        <v>0.01733839347388252</v>
+        <v>0.0173383931742044</v>
       </c>
       <c r="E608" s="1"/>
       <c r="F608" t="s">
@@ -55964,7 +55964,7 @@
         <v>1073</v>
       </c>
       <c r="D609" s="1">
-        <v>0.005946263304032746</v>
+        <v>0.00594626327864216</v>
       </c>
       <c r="E609" s="1"/>
       <c r="F609" t="s">
@@ -55986,7 +55986,7 @@
         <v>1073</v>
       </c>
       <c r="D610" s="1">
-        <v>0.008283126301119822</v>
+        <v>0.008283126189759358</v>
       </c>
       <c r="E610" s="1"/>
       <c r="F610" t="s">
@@ -56008,7 +56008,7 @@
         <v>1073</v>
       </c>
       <c r="D611" s="1">
-        <v>0.04138341530732902</v>
+        <v>0.04138341584834741</v>
       </c>
       <c r="E611" s="1"/>
       <c r="F611" t="s">
@@ -56030,7 +56030,7 @@
         <v>1073</v>
       </c>
       <c r="D612" s="1">
-        <v>-0.002200327313880502</v>
+        <v>-0.002200327235565596</v>
       </c>
       <c r="E612" s="1"/>
       <c r="F612" t="s">
@@ -56052,7 +56052,7 @@
         <v>1073</v>
       </c>
       <c r="D613" s="1">
-        <v>-0.008481410219378939</v>
+        <v>-0.008481410286450998</v>
       </c>
       <c r="E613" s="1"/>
       <c r="F613" t="s">
@@ -56074,7 +56074,7 @@
         <v>1073</v>
       </c>
       <c r="D614" s="1">
-        <v>0.01474577349227983</v>
+        <v>0.01474577342614763</v>
       </c>
       <c r="E614" s="1"/>
       <c r="F614" t="s">
@@ -56096,7 +56096,7 @@
         <v>1073</v>
       </c>
       <c r="D615" s="1">
-        <v>0.01640377910407833</v>
+        <v>0.01640377904827732</v>
       </c>
       <c r="E615" s="1"/>
       <c r="F615" t="s">
@@ -56118,7 +56118,7 @@
         <v>1073</v>
       </c>
       <c r="D616" s="1">
-        <v>0.007110918722258332</v>
+        <v>0.007110918760969434</v>
       </c>
       <c r="E616" s="1"/>
       <c r="F616" t="s">
@@ -56140,7 +56140,7 @@
         <v>1073</v>
       </c>
       <c r="D617" s="1">
-        <v>0.01521399679736332</v>
+        <v>0.01521399675276865</v>
       </c>
       <c r="E617" s="1"/>
       <c r="F617" t="s">
@@ -56162,7 +56162,7 @@
         <v>1073</v>
       </c>
       <c r="D618" s="1">
-        <v>0.002145254858727867</v>
+        <v>0.002145254926721941</v>
       </c>
       <c r="E618" s="1"/>
       <c r="F618" t="s">
@@ -56184,7 +56184,7 @@
         <v>1073</v>
       </c>
       <c r="D619" s="1">
-        <v>0.006257377643400241</v>
+        <v>0.006257377699741323</v>
       </c>
       <c r="E619" s="1"/>
       <c r="F619" t="s">
@@ -56206,7 +56206,7 @@
         <v>1073</v>
       </c>
       <c r="D620" s="1">
-        <v>0.01680412123972351</v>
+        <v>0.01680412122046307</v>
       </c>
       <c r="E620" s="1"/>
       <c r="F620" t="s">
@@ -56228,7 +56228,7 @@
         <v>1073</v>
       </c>
       <c r="D621" s="1">
-        <v>0.006556527628717971</v>
+        <v>0.006556527600718695</v>
       </c>
       <c r="E621" s="1"/>
       <c r="F621" t="s">
@@ -56250,7 +56250,7 @@
         <v>1073</v>
       </c>
       <c r="D622" s="1">
-        <v>0.01014640143717204</v>
+        <v>0.01014640134853599</v>
       </c>
       <c r="E622" s="1"/>
       <c r="F622" t="s">
@@ -56272,7 +56272,7 @@
         <v>1073</v>
       </c>
       <c r="D623" s="1">
-        <v>0.03807224764929275</v>
+        <v>0.03807224785885416</v>
       </c>
       <c r="E623" s="1"/>
       <c r="F623" t="s">
@@ -56294,7 +56294,7 @@
         <v>1073</v>
       </c>
       <c r="D624" s="1">
-        <v>-0.003406394014414575</v>
+        <v>-0.00340639374141488</v>
       </c>
       <c r="E624" s="1"/>
       <c r="F624" t="s">
@@ -56316,7 +56316,7 @@
         <v>1073</v>
       </c>
       <c r="D625" s="1">
-        <v>-0.007360395744924142</v>
+        <v>-0.007360395826911853</v>
       </c>
       <c r="E625" s="1"/>
       <c r="F625" t="s">
@@ -56338,7 +56338,7 @@
         <v>1073</v>
       </c>
       <c r="D626" s="1">
-        <v>0.01619319434067891</v>
+        <v>0.01619319430464201</v>
       </c>
       <c r="E626" s="1"/>
       <c r="F626" t="s">
@@ -56360,7 +56360,7 @@
         <v>1073</v>
       </c>
       <c r="D627" s="1">
-        <v>0.01764196012298325</v>
+        <v>0.01764196010858299</v>
       </c>
       <c r="E627" s="1"/>
       <c r="F627" t="s">
@@ -56382,7 +56382,7 @@
         <v>1073</v>
       </c>
       <c r="D628" s="1">
-        <v>0.00425975485896259</v>
+        <v>0.004259754827439212</v>
       </c>
       <c r="E628" s="1"/>
       <c r="F628" t="s">
@@ -56404,7 +56404,7 @@
         <v>1073</v>
       </c>
       <c r="D629" s="1">
-        <v>0.01526573682541679</v>
+        <v>0.01526573672604455</v>
       </c>
       <c r="E629" s="1"/>
       <c r="F629" t="s">
@@ -56426,7 +56426,7 @@
         <v>1073</v>
       </c>
       <c r="D630" s="1">
-        <v>0.002149028856180044</v>
+        <v>0.002149028924431503</v>
       </c>
       <c r="E630" s="1"/>
       <c r="F630" t="s">
@@ -56448,7 +56448,7 @@
         <v>1073</v>
       </c>
       <c r="D631" s="1">
-        <v>0.007521406953178943</v>
+        <v>0.007521407021907824</v>
       </c>
       <c r="E631" s="1"/>
       <c r="F631" t="s">
@@ -56470,7 +56470,7 @@
         <v>1073</v>
       </c>
       <c r="D632" s="1">
-        <v>0.0108768588755263</v>
+        <v>0.01087685899785968</v>
       </c>
       <c r="E632" s="1"/>
       <c r="F632" t="s">
@@ -56492,7 +56492,7 @@
         <v>1073</v>
       </c>
       <c r="D633" s="1">
-        <v>0.006572539755609045</v>
+        <v>0.006572539712016959</v>
       </c>
       <c r="E633" s="1"/>
       <c r="F633" t="s">
@@ -56514,7 +56514,7 @@
         <v>1073</v>
       </c>
       <c r="D634" s="1">
-        <v>0.01012055316585793</v>
+        <v>0.01012055308667516</v>
       </c>
       <c r="E634" s="1"/>
       <c r="F634" t="s">
@@ -56536,7 +56536,7 @@
         <v>1073</v>
       </c>
       <c r="D635" s="1">
-        <v>0.03854479001248475</v>
+        <v>0.03854479003034809</v>
       </c>
       <c r="E635" s="1"/>
       <c r="F635" t="s">
@@ -56558,7 +56558,7 @@
         <v>1073</v>
       </c>
       <c r="D636" s="1">
-        <v>-0.003527001408476278</v>
+        <v>-0.003527001537283374</v>
       </c>
       <c r="E636" s="1"/>
       <c r="F636" t="s">
@@ -56580,7 +56580,7 @@
         <v>1073</v>
       </c>
       <c r="D637" s="1">
-        <v>-0.004100130839169513</v>
+        <v>-0.004100130816108511</v>
       </c>
       <c r="E637" s="1"/>
       <c r="F637" t="s">
@@ -56602,7 +56602,7 @@
         <v>1073</v>
       </c>
       <c r="D638" s="1">
-        <v>0.01857862977333354</v>
+        <v>0.01857862996238224</v>
       </c>
       <c r="E638" s="1"/>
       <c r="F638" t="s">
@@ -56624,7 +56624,7 @@
         <v>1073</v>
       </c>
       <c r="D639" s="1">
-        <v>0.02011268978393849</v>
+        <v>0.02011268987431121</v>
       </c>
       <c r="E639" s="1"/>
       <c r="F639" t="s">
@@ -56646,7 +56646,7 @@
         <v>1073</v>
       </c>
       <c r="D640" s="1">
-        <v>0.004122721410796087</v>
+        <v>0.004122721418685345</v>
       </c>
       <c r="E640" s="1"/>
       <c r="F640" t="s">
@@ -56668,7 +56668,7 @@
         <v>1073</v>
       </c>
       <c r="D641" s="1">
-        <v>0.01423857425406718</v>
+        <v>0.01423857438297632</v>
       </c>
       <c r="E641" s="1"/>
       <c r="F641" t="s">
@@ -56690,7 +56690,7 @@
         <v>1073</v>
       </c>
       <c r="D642" s="1">
-        <v>0.002208630524637133</v>
+        <v>0.002208630598086643</v>
       </c>
       <c r="E642" s="1"/>
       <c r="F642" t="s">
@@ -56712,7 +56712,7 @@
         <v>1073</v>
       </c>
       <c r="D643" s="1">
-        <v>0.009032155773627032</v>
+        <v>0.009032155885822853</v>
       </c>
       <c r="E643" s="1"/>
       <c r="F643" t="s">
@@ -56734,7 +56734,7 @@
         <v>1073</v>
       </c>
       <c r="D644" s="1">
-        <v>0.01139832449034189</v>
+        <v>0.0113983244642476</v>
       </c>
       <c r="E644" s="1"/>
       <c r="F644" t="s">
@@ -56756,7 +56756,7 @@
         <v>1073</v>
       </c>
       <c r="D645" s="1">
-        <v>0.006991990858149506</v>
+        <v>0.006991990814193034</v>
       </c>
       <c r="E645" s="1"/>
       <c r="F645" t="s">
@@ -56778,7 +56778,7 @@
         <v>1073</v>
       </c>
       <c r="D646" s="1">
-        <v>0.01108053401871902</v>
+        <v>0.01108053398848836</v>
       </c>
       <c r="E646" s="1"/>
       <c r="F646" t="s">
@@ -56800,7 +56800,7 @@
         <v>1073</v>
       </c>
       <c r="D647" s="1">
-        <v>0.03546975036775304</v>
+        <v>0.0354697504876294</v>
       </c>
       <c r="E647" s="1"/>
       <c r="F647" t="s">
@@ -56822,7 +56822,7 @@
         <v>1073</v>
       </c>
       <c r="D648" s="1">
-        <v>-0.00105996594510673</v>
+        <v>-0.001059965971909744</v>
       </c>
       <c r="E648" s="1"/>
       <c r="F648" t="s">
@@ -56844,7 +56844,7 @@
         <v>1073</v>
       </c>
       <c r="D649" s="1">
-        <v>-0.004117491324230535</v>
+        <v>-0.004117491329274691</v>
       </c>
       <c r="E649" s="1"/>
       <c r="F649" t="s">
@@ -56866,7 +56866,7 @@
         <v>1073</v>
       </c>
       <c r="D650" s="1">
-        <v>0.01980995433828089</v>
+        <v>0.01980995416842955</v>
       </c>
       <c r="E650" s="1"/>
       <c r="F650" t="s">
@@ -56888,7 +56888,7 @@
         <v>1073</v>
       </c>
       <c r="D651" s="1">
-        <v>0.02165301418159156</v>
+        <v>0.02165301389646433</v>
       </c>
       <c r="E651" s="1"/>
       <c r="F651" t="s">
@@ -56910,7 +56910,7 @@
         <v>1073</v>
       </c>
       <c r="D652" s="1">
-        <v>0.003636887247787491</v>
+        <v>0.003636887267495569</v>
       </c>
       <c r="E652" s="1"/>
       <c r="F652" t="s">
@@ -56932,7 +56932,7 @@
         <v>1073</v>
       </c>
       <c r="D653" s="1">
-        <v>0.0130817650268609</v>
+        <v>0.01308176504631147</v>
       </c>
       <c r="E653" s="1"/>
       <c r="F653" t="s">
@@ -56954,7 +56954,7 @@
         <v>1073</v>
       </c>
       <c r="D654" s="1">
-        <v>0.002308198500442305</v>
+        <v>0.002308198576601992</v>
       </c>
       <c r="E654" s="1"/>
       <c r="F654" t="s">
@@ -56976,7 +56976,7 @@
         <v>1073</v>
       </c>
       <c r="D655" s="1">
-        <v>0.009437082054751507</v>
+        <v>0.009437082077056099</v>
       </c>
       <c r="E655" s="1"/>
       <c r="F655" t="s">
@@ -56998,7 +56998,7 @@
         <v>1073</v>
       </c>
       <c r="D656" s="1">
-        <v>0.01026632938577787</v>
+        <v>0.0102663292993894</v>
       </c>
       <c r="E656" s="1"/>
       <c r="F656" t="s">
@@ -57020,7 +57020,7 @@
         <v>1073</v>
       </c>
       <c r="D657" s="1">
-        <v>0.007115978663432359</v>
+        <v>0.00711597861632611</v>
       </c>
       <c r="E657" s="1"/>
       <c r="F657" t="s">
@@ -57042,7 +57042,7 @@
         <v>1073</v>
       </c>
       <c r="D658" s="1">
-        <v>0.01221593198454879</v>
+        <v>0.01221593181940823</v>
       </c>
       <c r="E658" s="1"/>
       <c r="F658" t="s">
@@ -57064,7 +57064,7 @@
         <v>1073</v>
       </c>
       <c r="D659" s="1">
-        <v>0.03223592824805698</v>
+        <v>0.03223592829624263</v>
       </c>
       <c r="E659" s="1"/>
       <c r="F659" t="s">
@@ -57086,7 +57086,7 @@
         <v>1073</v>
       </c>
       <c r="D660" s="1">
-        <v>-0.001231040232165473</v>
+        <v>-0.001231040243924869</v>
       </c>
       <c r="E660" s="1"/>
       <c r="F660" t="s">
@@ -57108,7 +57108,7 @@
         <v>1073</v>
       </c>
       <c r="D661" s="1">
-        <v>-0.003624694983165287</v>
+        <v>-0.003624695001455476</v>
       </c>
       <c r="E661" s="1"/>
       <c r="F661" t="s">
@@ -57130,7 +57130,7 @@
         <v>1073</v>
       </c>
       <c r="D662" s="1">
-        <v>0.02239344379552318</v>
+        <v>0.02239344375877587</v>
       </c>
       <c r="E662" s="1"/>
       <c r="F662" t="s">
@@ -57152,7 +57152,7 @@
         <v>1073</v>
       </c>
       <c r="D663" s="1">
-        <v>0.02467036250113097</v>
+        <v>0.0246703624402739</v>
       </c>
       <c r="E663" s="1"/>
       <c r="F663" t="s">
@@ -57174,7 +57174,7 @@
         <v>1073</v>
       </c>
       <c r="D664" s="1">
-        <v>0.003552251128788022</v>
+        <v>0.003552251153955078</v>
       </c>
       <c r="E664" s="1"/>
       <c r="F664" t="s">
@@ -57196,7 +57196,7 @@
         <v>1073</v>
       </c>
       <c r="D665" s="1">
-        <v>0.01401233593138097</v>
+        <v>0.01401233595034327</v>
       </c>
       <c r="E665" s="1"/>
       <c r="F665" t="s">
@@ -57218,7 +57218,7 @@
         <v>1073</v>
       </c>
       <c r="D666" s="1">
-        <v>0.002300268733345794</v>
+        <v>0.002300268811795744</v>
       </c>
       <c r="E666" s="1"/>
       <c r="F666" t="s">
@@ -57240,7 +57240,7 @@
         <v>1073</v>
       </c>
       <c r="D667" s="1">
-        <v>0.01148969531425029</v>
+        <v>0.01148969542422147</v>
       </c>
       <c r="E667" s="1"/>
       <c r="F667" t="s">
@@ -57262,7 +57262,7 @@
         <v>1073</v>
       </c>
       <c r="D668" s="1">
-        <v>0.009737842866914089</v>
+        <v>0.009737842729820244</v>
       </c>
       <c r="E668" s="1"/>
       <c r="F668" t="s">
@@ -57284,7 +57284,7 @@
         <v>1073</v>
       </c>
       <c r="D669" s="1">
-        <v>0.007108345469528573</v>
+        <v>0.007108345437344104</v>
       </c>
       <c r="E669" s="1"/>
       <c r="F669" t="s">
@@ -57306,7 +57306,7 @@
         <v>1073</v>
       </c>
       <c r="D670" s="1">
-        <v>0.01318066715234763</v>
+        <v>0.01318066701605243</v>
       </c>
       <c r="E670" s="1"/>
       <c r="F670" t="s">
@@ -57328,7 +57328,7 @@
         <v>1073</v>
       </c>
       <c r="D671" s="1">
-        <v>0.03549314523362055</v>
+        <v>0.03549314519967121</v>
       </c>
       <c r="E671" s="1"/>
       <c r="F671" t="s">
@@ -57350,7 +57350,7 @@
         <v>1073</v>
       </c>
       <c r="D672" s="1">
-        <v>-0.001526068238143641</v>
+        <v>-0.001526068232393332</v>
       </c>
       <c r="E672" s="1"/>
       <c r="F672" t="s">
@@ -57372,7 +57372,7 @@
         <v>1073</v>
       </c>
       <c r="D673" s="1">
-        <v>-0.003366483653016663</v>
+        <v>-0.003366483686360545</v>
       </c>
       <c r="E673" s="1"/>
       <c r="F673" t="s">
@@ -57394,7 +57394,7 @@
         <v>1073</v>
       </c>
       <c r="D674" s="1">
-        <v>0.02472849708693234</v>
+        <v>0.02472849711102729</v>
       </c>
       <c r="E674" s="1"/>
       <c r="F674" t="s">
@@ -57416,7 +57416,7 @@
         <v>1073</v>
       </c>
       <c r="D675" s="1">
-        <v>0.02714709936261446</v>
+        <v>0.02714709941126519</v>
       </c>
       <c r="E675" s="1"/>
       <c r="F675" t="s">
@@ -57438,7 +57438,7 @@
         <v>1073</v>
       </c>
       <c r="D676" s="1">
-        <v>0.003576149259246428</v>
+        <v>0.003576149278510325</v>
       </c>
       <c r="E676" s="1"/>
       <c r="F676" t="s">
@@ -57460,7 +57460,7 @@
         <v>1073</v>
       </c>
       <c r="D677" s="1">
-        <v>0.01411955304588577</v>
+        <v>0.01411955318353732</v>
       </c>
       <c r="E677" s="1"/>
       <c r="F677" t="s">
@@ -57482,7 +57482,7 @@
         <v>1073</v>
       </c>
       <c r="D678" s="1">
-        <v>0.00234647930300408</v>
+        <v>0.002346479372565541</v>
       </c>
       <c r="E678" s="1"/>
       <c r="F678" t="s">
@@ -57504,7 +57504,7 @@
         <v>1073</v>
       </c>
       <c r="D679" s="1">
-        <v>0.01307461808578079</v>
+        <v>0.01307461818028947</v>
       </c>
       <c r="E679" s="1"/>
       <c r="F679" t="s">
@@ -57526,7 +57526,7 @@
         <v>1073</v>
       </c>
       <c r="D680" s="1">
-        <v>0.01024666228130159</v>
+        <v>0.01024666220130224</v>
       </c>
       <c r="E680" s="1"/>
       <c r="F680" t="s">
@@ -57548,7 +57548,7 @@
         <v>1073</v>
       </c>
       <c r="D681" s="1">
-        <v>0.007257511074410718</v>
+        <v>0.007257511016023649</v>
       </c>
       <c r="E681" s="1"/>
       <c r="F681" t="s">
@@ -57570,7 +57570,7 @@
         <v>1073</v>
       </c>
       <c r="D682" s="1">
-        <v>0.01407248135839137</v>
+        <v>0.01407248123097572</v>
       </c>
       <c r="E682" s="1"/>
       <c r="F682" t="s">
@@ -57592,7 +57592,7 @@
         <v>1073</v>
       </c>
       <c r="D683" s="1">
-        <v>0.03549312647050486</v>
+        <v>0.03549312639345483</v>
       </c>
       <c r="E683" s="1"/>
       <c r="F683" t="s">
@@ -57614,7 +57614,7 @@
         <v>1073</v>
       </c>
       <c r="D684" s="1">
-        <v>-0.002453534267901758</v>
+        <v>-0.002453534191184997</v>
       </c>
       <c r="E684" s="1"/>
       <c r="F684" t="s">
@@ -57636,7 +57636,7 @@
         <v>1073</v>
       </c>
       <c r="D685" s="1">
-        <v>-0.003328190548229869</v>
+        <v>-0.003328190575120871</v>
       </c>
       <c r="E685" s="1"/>
       <c r="F685" t="s">
@@ -57658,7 +57658,7 @@
         <v>1073</v>
       </c>
       <c r="D686" s="1">
-        <v>0.02678984780716841</v>
+        <v>0.02678984784228099</v>
       </c>
       <c r="E686" s="1"/>
       <c r="F686" t="s">
@@ -57680,7 +57680,7 @@
         <v>1073</v>
       </c>
       <c r="D687" s="1">
-        <v>0.029967582648781</v>
+        <v>0.02996758291696192</v>
       </c>
       <c r="E687" s="1"/>
       <c r="F687" t="s">
@@ -57702,7 +57702,7 @@
         <v>1073</v>
       </c>
       <c r="D688" s="1">
-        <v>0.003933839739279342</v>
+        <v>0.003933839751560782</v>
       </c>
       <c r="E688" s="1"/>
       <c r="F688" t="s">
@@ -57724,7 +57724,7 @@
         <v>1073</v>
       </c>
       <c r="D689" s="1">
-        <v>0.01375112911105727</v>
+        <v>0.01375112915731421</v>
       </c>
       <c r="E689" s="1"/>
       <c r="F689" t="s">
@@ -57746,7 +57746,7 @@
         <v>1073</v>
       </c>
       <c r="D690" s="1">
-        <v>0.002449910722753064</v>
+        <v>0.002449910798661721</v>
       </c>
       <c r="E690" s="1"/>
       <c r="F690" t="s">
@@ -57768,7 +57768,7 @@
         <v>1073</v>
       </c>
       <c r="D691" s="1">
-        <v>0.01399793715295911</v>
+        <v>0.01399793728532836</v>
       </c>
       <c r="E691" s="1"/>
       <c r="F691" t="s">
@@ -57790,7 +57790,7 @@
         <v>1073</v>
       </c>
       <c r="D692" s="1">
-        <v>0.01089871133568673</v>
+        <v>0.01089871123552181</v>
       </c>
       <c r="E692" s="1"/>
       <c r="F692" t="s">
@@ -57812,7 +57812,7 @@
         <v>1073</v>
       </c>
       <c r="D693" s="1">
-        <v>0.007323079202298514</v>
+        <v>0.007323079131578597</v>
       </c>
       <c r="E693" s="1"/>
       <c r="F693" t="s">
@@ -57834,7 +57834,7 @@
         <v>1073</v>
       </c>
       <c r="D694" s="1">
-        <v>0.01596964579895569</v>
+        <v>0.01596964563163356</v>
       </c>
       <c r="E694" s="1"/>
       <c r="F694" t="s">
@@ -57856,7 +57856,7 @@
         <v>1073</v>
       </c>
       <c r="D695" s="1">
-        <v>0.03527781656411643</v>
+        <v>0.03527781650635808</v>
       </c>
       <c r="E695" s="1"/>
       <c r="F695" t="s">
@@ -57878,7 +57878,7 @@
         <v>1073</v>
       </c>
       <c r="D696" s="1">
-        <v>-0.001710064850038925</v>
+        <v>-0.00171006481106336</v>
       </c>
       <c r="E696" s="1"/>
       <c r="F696" t="s">
@@ -57900,7 +57900,7 @@
         <v>1073</v>
       </c>
       <c r="D697" s="1">
-        <v>-0.003691030903722017</v>
+        <v>-0.003691030928177106</v>
       </c>
       <c r="E697" s="1"/>
       <c r="F697" t="s">
@@ -57922,7 +57922,7 @@
         <v>1073</v>
       </c>
       <c r="D698" s="1">
-        <v>0.02796828132729655</v>
+        <v>0.02796828136914292</v>
       </c>
       <c r="E698" s="1"/>
       <c r="F698" t="s">
@@ -57944,7 +57944,7 @@
         <v>1073</v>
       </c>
       <c r="D699" s="1">
-        <v>0.03134825091956873</v>
+        <v>0.03134825103488226</v>
       </c>
       <c r="E699" s="1"/>
       <c r="F699" t="s">
@@ -57966,7 +57966,7 @@
         <v>1073</v>
       </c>
       <c r="D700" s="1">
-        <v>0.003751787975204758</v>
+        <v>0.003751787980181955</v>
       </c>
       <c r="E700" s="1"/>
       <c r="F700" t="s">
@@ -57988,7 +57988,7 @@
         <v>1073</v>
       </c>
       <c r="D701" s="1">
-        <v>0.01391752328862216</v>
+        <v>0.01391752333111092</v>
       </c>
       <c r="E701" s="1"/>
       <c r="F701" t="s">
@@ -58010,7 +58010,7 @@
         <v>1073</v>
       </c>
       <c r="D702" s="1">
-        <v>0.00242534460554951</v>
+        <v>0.00242534468133039</v>
       </c>
       <c r="E702" s="1"/>
       <c r="F702" t="s">
@@ -58032,7 +58032,7 @@
         <v>1073</v>
       </c>
       <c r="D703" s="1">
-        <v>0.01491834612563162</v>
+        <v>0.01491834623210252</v>
       </c>
       <c r="E703" s="1"/>
       <c r="F703" t="s">
@@ -58054,7 +58054,7 @@
         <v>1073</v>
       </c>
       <c r="D704" s="1">
-        <v>0.01025274080709993</v>
+        <v>0.0102527407640022</v>
       </c>
       <c r="E704" s="1"/>
       <c r="F704" t="s">
@@ -58076,7 +58076,7 @@
         <v>1073</v>
       </c>
       <c r="D705" s="1">
-        <v>0.007262471489892639</v>
+        <v>0.007262471440020424</v>
       </c>
       <c r="E705" s="1"/>
       <c r="F705" t="s">
@@ -58098,7 +58098,7 @@
         <v>1073</v>
       </c>
       <c r="D706" s="1">
-        <v>0.0164299048367813</v>
+        <v>0.01642990480277974</v>
       </c>
       <c r="E706" s="1"/>
       <c r="F706" t="s">
@@ -58120,7 +58120,7 @@
         <v>1073</v>
       </c>
       <c r="D707" s="1">
-        <v>0.03600915103495945</v>
+        <v>0.03600915119037078</v>
       </c>
       <c r="E707" s="1"/>
       <c r="F707" t="s">
@@ -58142,7 +58142,7 @@
         <v>1073</v>
       </c>
       <c r="D708" s="1">
-        <v>-0.001398488359158455</v>
+        <v>-0.001398488347133852</v>
       </c>
       <c r="E708" s="1"/>
       <c r="F708" t="s">
@@ -58164,7 +58164,7 @@
         <v>1073</v>
       </c>
       <c r="D709" s="1">
-        <v>-0.003444152535917149</v>
+        <v>-0.003444152554254522</v>
       </c>
       <c r="E709" s="1"/>
       <c r="F709" t="s">
@@ -58186,7 +58186,7 @@
         <v>1073</v>
       </c>
       <c r="D710" s="1">
-        <v>0.02820828429909506</v>
+        <v>0.02820828402110997</v>
       </c>
       <c r="E710" s="1"/>
       <c r="F710" t="s">
@@ -58208,7 +58208,7 @@
         <v>1073</v>
       </c>
       <c r="D711" s="1">
-        <v>0.03261756486517131</v>
+        <v>0.03261756468747955</v>
       </c>
       <c r="E711" s="1"/>
       <c r="F711" t="s">
@@ -58230,7 +58230,7 @@
         <v>1073</v>
       </c>
       <c r="D712" s="1">
-        <v>0.004755589208008626</v>
+        <v>0.004755589254276376</v>
       </c>
       <c r="E712" s="1"/>
       <c r="F712" t="s">
@@ -58252,7 +58252,7 @@
         <v>1073</v>
       </c>
       <c r="D713" s="1">
-        <v>0.01316575126863257</v>
+        <v>0.01316575137482737</v>
       </c>
       <c r="E713" s="1"/>
       <c r="F713" t="s">
@@ -58274,7 +58274,7 @@
         <v>1073</v>
       </c>
       <c r="D714" s="1">
-        <v>0.002437942405815008</v>
+        <v>0.002437942475722646</v>
       </c>
       <c r="E714" s="1"/>
       <c r="F714" t="s">
@@ -58296,7 +58296,7 @@
         <v>1073</v>
       </c>
       <c r="D715" s="1">
-        <v>0.0149815910871525</v>
+        <v>0.01498159125348637</v>
       </c>
       <c r="E715" s="1"/>
       <c r="F715" t="s">
@@ -58318,7 +58318,7 @@
         <v>1073</v>
       </c>
       <c r="D716" s="1">
-        <v>0.01098142791117245</v>
+        <v>0.01098142772634116</v>
       </c>
       <c r="E716" s="1"/>
       <c r="F716" t="s">
@@ -58340,7 +58340,7 @@
         <v>1073</v>
       </c>
       <c r="D717" s="1">
-        <v>0.007585270236475767</v>
+        <v>0.007585270182913988</v>
       </c>
       <c r="E717" s="1"/>
       <c r="F717" t="s">
@@ -58362,7 +58362,7 @@
         <v>1073</v>
       </c>
       <c r="D718" s="1">
-        <v>0.01763597378096526</v>
+        <v>0.01763597343399318</v>
       </c>
       <c r="E718" s="1"/>
       <c r="F718" t="s">
@@ -58384,7 +58384,7 @@
         <v>1073</v>
       </c>
       <c r="D719" s="1">
-        <v>0.03544785922034438</v>
+        <v>0.03544785938273697</v>
       </c>
       <c r="E719" s="1"/>
       <c r="F719" t="s">
@@ -58406,7 +58406,7 @@
         <v>1073</v>
       </c>
       <c r="D720" s="1">
-        <v>-0.001933553805963196</v>
+        <v>-0.001933553811113117</v>
       </c>
       <c r="E720" s="1"/>
       <c r="F720" t="s">
@@ -58428,7 +58428,7 @@
         <v>1073</v>
       </c>
       <c r="D721" s="1">
-        <v>-0.004108381513263344</v>
+        <v>-0.004108381577237179</v>
       </c>
       <c r="E721" s="1"/>
       <c r="F721" t="s">
@@ -58476,7 +58476,7 @@
         <v>1075</v>
       </c>
       <c r="D723" s="1">
-        <v>81374956747.151</v>
+        <v>81374955957.01382</v>
       </c>
       <c r="E723" s="1">
         <v>17258998.46749878</v>
@@ -58528,7 +58528,7 @@
         <v>1077</v>
       </c>
       <c r="D725" s="1">
-        <v>4714.929252725293</v>
+        <v>4714.929206944122</v>
       </c>
       <c r="E725" s="1">
         <v>17258998.46749878</v>
@@ -58580,7 +58580,7 @@
         <v>1075</v>
       </c>
       <c r="D727" s="1">
-        <v>258409462351.4942</v>
+        <v>258409461574.0454</v>
       </c>
       <c r="E727" s="1">
         <v>17258998.46749878</v>
@@ -58632,7 +58632,7 @@
         <v>1077</v>
       </c>
       <c r="D729" s="1">
-        <v>14972.44830504604</v>
+        <v>14972.44826000004</v>
       </c>
       <c r="E729" s="1">
         <v>17258998.46749878</v>
@@ -58684,7 +58684,7 @@
         <v>1075</v>
       </c>
       <c r="D731" s="1">
-        <v>33881790873.61956</v>
+        <v>33881791099.81222</v>
       </c>
       <c r="E731" s="1">
         <v>17258998.46749878</v>
@@ -58736,7 +58736,7 @@
         <v>1077</v>
       </c>
       <c r="D733" s="1">
-        <v>1963.137718415349</v>
+        <v>1963.13773152113</v>
       </c>
       <c r="E733" s="1">
         <v>17258998.46749878</v>
@@ -58788,7 +58788,7 @@
         <v>1075</v>
       </c>
       <c r="D735" s="1">
-        <v>292291252743.3578</v>
+        <v>292291252673.8577</v>
       </c>
       <c r="E735" s="1">
         <v>17258998.46749878</v>
@@ -58840,7 +58840,7 @@
         <v>1077</v>
       </c>
       <c r="D737" s="1">
-        <v>16935.58599554806</v>
+        <v>16935.58599152117</v>
       </c>
       <c r="E737" s="1">
         <v>17258998.46749878</v>
@@ -58892,7 +58892,7 @@
         <v>1075</v>
       </c>
       <c r="D739" s="1">
-        <v>75839887590.0468</v>
+        <v>75839887097.71976</v>
       </c>
       <c r="E739" s="1">
         <v>17258998.46749878</v>
@@ -58944,7 +58944,7 @@
         <v>1077</v>
       </c>
       <c r="D741" s="1">
-        <v>4394.222974923163</v>
+        <v>4394.222946397345</v>
       </c>
       <c r="E741" s="1">
         <v>17258998.46749878</v>
@@ -58996,7 +58996,7 @@
         <v>1075</v>
       </c>
       <c r="D743" s="1">
-        <v>157214844835.5522</v>
+        <v>157214843054.7336</v>
       </c>
       <c r="E743" s="1">
         <v>17258998.46749878</v>
@@ -59048,7 +59048,7 @@
         <v>1077</v>
       </c>
       <c r="D745" s="1">
-        <v>9109.152256523503</v>
+        <v>9109.152153341467</v>
       </c>
       <c r="E745" s="1">
         <v>17258998.46749878</v>
@@ -59100,7 +59100,7 @@
         <v>1075</v>
       </c>
       <c r="D747" s="1">
-        <v>110303047936.4328</v>
+        <v>110303048545.9941</v>
       </c>
       <c r="E747" s="1">
         <v>17258998.46749878</v>
@@ -59152,7 +59152,7 @@
         <v>1077</v>
       </c>
       <c r="D749" s="1">
-        <v>6391.04569967658</v>
+        <v>6391.045734995047</v>
       </c>
       <c r="E749" s="1">
         <v>17258998.46749878</v>
@@ -59204,7 +59204,7 @@
         <v>1075</v>
       </c>
       <c r="D751" s="1">
-        <v>24773360336.67864</v>
+        <v>24773361073.12996</v>
       </c>
       <c r="E751" s="1">
         <v>17258998.46749878</v>
@@ -59256,7 +59256,7 @@
         <v>1077</v>
       </c>
       <c r="D753" s="1">
-        <v>1435.388060514085</v>
+        <v>1435.388103184656</v>
       </c>
       <c r="E753" s="1">
         <v>17258998.46749878</v>
@@ -59308,7 +59308,7 @@
         <v>1075</v>
       </c>
       <c r="D755" s="1">
-        <v>135076408371.5624</v>
+        <v>135076409619.1241</v>
       </c>
       <c r="E755" s="1">
         <v>17258998.46749878</v>
@@ -59360,7 +59360,7 @@
         <v>1077</v>
       </c>
       <c r="D757" s="1">
-        <v>7826.433765894992</v>
+        <v>7826.433838179703</v>
       </c>
       <c r="E757" s="1">
         <v>17258998.46749878</v>
@@ -59412,7 +59412,7 @@
         <v>1075</v>
       </c>
       <c r="D759" s="1">
-        <v>289003531915.086</v>
+        <v>289003532717.5941</v>
       </c>
       <c r="E759" s="1">
         <v>17258998.46749878</v>
@@ -59464,7 +59464,7 @@
         <v>1077</v>
       </c>
       <c r="D761" s="1">
-        <v>16745.09285456638</v>
+        <v>16745.09290106433</v>
       </c>
       <c r="E761" s="1">
         <v>17258998.46749878</v>
@@ -59516,7 +59516,7 @@
         <v>1075</v>
       </c>
       <c r="D763" s="1">
-        <v>4337105093.438971</v>
+        <v>4337105080.331972</v>
       </c>
       <c r="E763" s="1">
         <v>17258998.46749878</v>
@@ -59568,7 +59568,7 @@
         <v>1077</v>
       </c>
       <c r="D765" s="1">
-        <v>251.2952939654276</v>
+        <v>251.2952932059978</v>
       </c>
       <c r="E765" s="1">
         <v>17258998.46749878</v>
@@ -59620,7 +59620,7 @@
         <v>1075</v>
       </c>
       <c r="D767" s="1">
-        <v>29544685709.64592</v>
+        <v>29544686019.48025</v>
       </c>
       <c r="E767" s="1">
         <v>17258998.46749878</v>
@@ -59672,7 +59672,7 @@
         <v>1077</v>
       </c>
       <c r="D769" s="1">
-        <v>1711.842420363087</v>
+        <v>1711.842438315133</v>
       </c>
       <c r="E769" s="1">
         <v>17258998.46749878</v>
@@ -59828,7 +59828,7 @@
         <v>1081</v>
       </c>
       <c r="D775" s="1">
-        <v>0.110536074409436</v>
+        <v>0.1105360742831728</v>
       </c>
       <c r="E775" s="1">
         <v>17258998.46749878</v>
@@ -59854,7 +59854,7 @@
         <v>1082</v>
       </c>
       <c r="D776" s="1">
-        <v>0.04575606491198429</v>
+        <v>0.04575606502754628</v>
       </c>
       <c r="E776" s="1">
         <v>17258998.46749878</v>
@@ -59958,7 +59958,7 @@
         <v>1081</v>
       </c>
       <c r="D780" s="1">
-        <v>0.109510208191942</v>
+        <v>0.1095102086093253</v>
       </c>
       <c r="E780" s="1">
         <v>17258998.46749878</v>
@@ -59984,7 +59984,7 @@
         <v>1082</v>
       </c>
       <c r="D781" s="1">
-        <v>0.04513618839483886</v>
+        <v>0.04513618859600928</v>
       </c>
       <c r="E781" s="1">
         <v>17258998.46749878</v>
@@ -60088,7 +60088,7 @@
         <v>1081</v>
       </c>
       <c r="D785" s="1">
-        <v>0.1140521073995096</v>
+        <v>0.1140521071814289</v>
       </c>
       <c r="E785" s="1">
         <v>17258998.46749878</v>
@@ -60114,7 +60114,7 @@
         <v>1082</v>
       </c>
       <c r="D786" s="1">
-        <v>0.04716463736889367</v>
+        <v>0.04716463740431422</v>
       </c>
       <c r="E786" s="1">
         <v>17258998.46749878</v>
@@ -60218,7 +60218,7 @@
         <v>1081</v>
       </c>
       <c r="D790" s="1">
-        <v>0.1091471327539508</v>
+        <v>0.1091471333432967</v>
       </c>
       <c r="E790" s="1">
         <v>17258998.46749878</v>
@@ -60244,7 +60244,7 @@
         <v>1082</v>
       </c>
       <c r="D791" s="1">
-        <v>0.04496708848672033</v>
+        <v>0.04496708874032105</v>
       </c>
       <c r="E791" s="1">
         <v>17258998.46749878</v>
@@ -60296,7 +60296,7 @@
         <v>1081</v>
       </c>
       <c r="D793" s="1">
-        <v>0.1136472715233978</v>
+        <v>0.1136472713939958</v>
       </c>
       <c r="E793" s="1">
         <v>17258998.46749878</v>
@@ -60322,7 +60322,7 @@
         <v>1082</v>
       </c>
       <c r="D794" s="1">
-        <v>0.04697152249262366</v>
+        <v>0.04697152250411911</v>
       </c>
       <c r="E794" s="1">
         <v>17258998.46749878</v>
@@ -60426,7 +60426,7 @@
         <v>1081</v>
       </c>
       <c r="D798" s="1">
-        <v>0.1136668584062435</v>
+        <v>0.1136668582795537</v>
       </c>
       <c r="E798" s="1">
         <v>17258998.46749878</v>
@@ -60452,7 +60452,7 @@
         <v>1082</v>
       </c>
       <c r="D799" s="1">
-        <v>0.04698039657046527</v>
+        <v>0.04698039663294609</v>
       </c>
       <c r="E799" s="1">
         <v>17258998.46749878</v>
@@ -60556,7 +60556,7 @@
         <v>1081</v>
       </c>
       <c r="D803" s="1">
-        <v>0.1140325205266954</v>
+        <v>0.114032520295871</v>
       </c>
       <c r="E803" s="1">
         <v>17258998.46749878</v>
@@ -60582,7 +60582,7 @@
         <v>1082</v>
       </c>
       <c r="D804" s="1">
-        <v>0.04715571808245192</v>
+        <v>0.04715571809937025</v>
       </c>
       <c r="E804" s="1">
         <v>17258998.46749878</v>
@@ -60686,7 +60686,7 @@
         <v>1081</v>
       </c>
       <c r="D808" s="1">
-        <v>0.1127077272636807</v>
+        <v>0.1127077270857523</v>
       </c>
       <c r="E808" s="1">
         <v>17258998.46749878</v>
@@ -60712,7 +60712,7 @@
         <v>1082</v>
       </c>
       <c r="D809" s="1">
-        <v>0.04656595507849669</v>
+        <v>0.04656595507789954</v>
       </c>
       <c r="E809" s="1">
         <v>17258998.46749878</v>
@@ -60816,7 +60816,7 @@
         <v>1081</v>
       </c>
       <c r="D813" s="1">
-        <v>0.111875183300865</v>
+        <v>0.1118751835049593</v>
       </c>
       <c r="E813" s="1">
         <v>17258998.46749878</v>
@@ -60842,7 +60842,7 @@
         <v>1082</v>
       </c>
       <c r="D814" s="1">
-        <v>0.04612933641621193</v>
+        <v>0.04612933659318427</v>
       </c>
       <c r="E814" s="1">
         <v>17258998.46749878</v>
@@ -60946,7 +60946,7 @@
         <v>1081</v>
       </c>
       <c r="D818" s="1">
-        <v>0.1109553340797772</v>
+        <v>0.1109553343167521</v>
       </c>
       <c r="E818" s="1">
         <v>17258998.46749878</v>
@@ -60972,7 +60972,7 @@
         <v>1082</v>
       </c>
       <c r="D819" s="1">
-        <v>0.04573421236260481</v>
+        <v>0.04573421248885469</v>
       </c>
       <c r="E819" s="1">
         <v>17258998.46749878</v>
@@ -61076,7 +61076,7 @@
         <v>1081</v>
       </c>
       <c r="D823" s="1">
-        <v>0.112324075554764</v>
+        <v>0.1123240752645337</v>
       </c>
       <c r="E823" s="1">
         <v>17258998.46749878</v>
@@ -61102,7 +61102,7 @@
         <v>1082</v>
       </c>
       <c r="D824" s="1">
-        <v>0.0464458053490206</v>
+        <v>0.04644580539995102</v>
       </c>
       <c r="E824" s="1">
         <v>17258998.46749878</v>
@@ -61206,7 +61206,7 @@
         <v>1081</v>
       </c>
       <c r="D828" s="1">
-        <v>0.1130680703604486</v>
+        <v>0.1130680706437068</v>
       </c>
       <c r="E828" s="1">
         <v>17258998.46749878</v>
@@ -61232,7 +61232,7 @@
         <v>1082</v>
       </c>
       <c r="D829" s="1">
-        <v>0.04669281693633368</v>
+        <v>0.04669281718639064</v>
       </c>
       <c r="E829" s="1">
         <v>17258998.46749878</v>
@@ -61336,7 +61336,7 @@
         <v>1081</v>
       </c>
       <c r="D833" s="1">
-        <v>0.1117533116629832</v>
+        <v>0.1117533118462847</v>
       </c>
       <c r="E833" s="1">
         <v>17258998.46749878</v>
@@ -61362,7 +61362,7 @@
         <v>1082</v>
       </c>
       <c r="D834" s="1">
-        <v>0.04617157276954115</v>
+        <v>0.04617157289128086</v>
       </c>
       <c r="E834" s="1">
         <v>17258998.46749878</v>
